--- a/Lab2/lab2.xlsx
+++ b/Lab2/lab2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aruns\Documents\Stat 235\Labs\Stat-235-Labs\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCB1C85A-763B-4D64-BE96-D3D79D33F3C7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E704C36-3FAC-4C7E-ABE9-66DD2001BD56}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12360" tabRatio="622"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="12360" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal Density" sheetId="11" r:id="rId1"/>
     <sheet name="Normal Probabilities" sheetId="7" r:id="rId2"/>
     <sheet name="Binomial Probabilities" sheetId="12" r:id="rId3"/>
-    <sheet name="Data" sheetId="14" r:id="rId4"/>
+    <sheet name="&quot;Random&quot; Data" sheetId="15" r:id="rId4"/>
+    <sheet name="&quot;Random Data&quot;" sheetId="17" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="a">'Normal Probabilities'!$C$6</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Mean</t>
   </si>
@@ -248,16 +249,13 @@
   <si>
     <t>P(X &gt; x)</t>
   </si>
-  <si>
-    <t>TS</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -267,6 +265,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -440,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -506,10 +505,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -638,1507 +636,1507 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="501"/>
                 <c:pt idx="0">
-                  <c:v>270</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>270.06</c:v>
+                  <c:v>275.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270.12</c:v>
+                  <c:v>275.12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>270.18</c:v>
+                  <c:v>275.18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>270.24</c:v>
+                  <c:v>275.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>270.3</c:v>
+                  <c:v>275.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>270.36</c:v>
+                  <c:v>275.36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>270.42</c:v>
+                  <c:v>275.42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>270.48</c:v>
+                  <c:v>275.48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>270.54000000000002</c:v>
+                  <c:v>275.54000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>270.60000000000002</c:v>
+                  <c:v>275.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>270.66000000000003</c:v>
+                  <c:v>275.66000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>270.72000000000003</c:v>
+                  <c:v>275.72000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>270.78000000000003</c:v>
+                  <c:v>275.78000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>270.84000000000003</c:v>
+                  <c:v>275.84000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>270.90000000000003</c:v>
+                  <c:v>275.90000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>270.96000000000004</c:v>
+                  <c:v>275.96000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>271.02000000000004</c:v>
+                  <c:v>276.02000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>271.08000000000004</c:v>
+                  <c:v>276.08000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>271.14000000000004</c:v>
+                  <c:v>276.14000000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>271.20000000000005</c:v>
+                  <c:v>276.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>271.26000000000005</c:v>
+                  <c:v>276.26000000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>271.32000000000005</c:v>
+                  <c:v>276.32000000000005</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>271.38000000000005</c:v>
+                  <c:v>276.38000000000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>271.44000000000005</c:v>
+                  <c:v>276.44000000000005</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>271.50000000000006</c:v>
+                  <c:v>276.50000000000006</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>271.56000000000006</c:v>
+                  <c:v>276.56000000000006</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>271.62000000000006</c:v>
+                  <c:v>276.62000000000006</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>271.68000000000006</c:v>
+                  <c:v>276.68000000000006</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>271.74000000000007</c:v>
+                  <c:v>276.74000000000007</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>271.80000000000007</c:v>
+                  <c:v>276.80000000000007</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>271.86000000000007</c:v>
+                  <c:v>276.86000000000007</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>271.92000000000007</c:v>
+                  <c:v>276.92000000000007</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>271.98000000000008</c:v>
+                  <c:v>276.98000000000008</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>272.04000000000008</c:v>
+                  <c:v>277.04000000000008</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>272.10000000000008</c:v>
+                  <c:v>277.10000000000008</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>272.16000000000008</c:v>
+                  <c:v>277.16000000000008</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>272.22000000000008</c:v>
+                  <c:v>277.22000000000008</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>272.28000000000009</c:v>
+                  <c:v>277.28000000000009</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>272.34000000000009</c:v>
+                  <c:v>277.34000000000009</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>272.40000000000009</c:v>
+                  <c:v>277.40000000000009</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>272.46000000000009</c:v>
+                  <c:v>277.46000000000009</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>272.5200000000001</c:v>
+                  <c:v>277.5200000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>272.5800000000001</c:v>
+                  <c:v>277.5800000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>272.6400000000001</c:v>
+                  <c:v>277.6400000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>272.7000000000001</c:v>
+                  <c:v>277.7000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>272.7600000000001</c:v>
+                  <c:v>277.7600000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>272.82000000000011</c:v>
+                  <c:v>277.82000000000011</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>272.88000000000011</c:v>
+                  <c:v>277.88000000000011</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>272.94000000000011</c:v>
+                  <c:v>277.94000000000011</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>273.00000000000011</c:v>
+                  <c:v>278.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>273.06000000000012</c:v>
+                  <c:v>278.06000000000012</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>273.12000000000012</c:v>
+                  <c:v>278.12000000000012</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>273.18000000000012</c:v>
+                  <c:v>278.18000000000012</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>273.24000000000012</c:v>
+                  <c:v>278.24000000000012</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>273.30000000000013</c:v>
+                  <c:v>278.30000000000013</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>273.36000000000013</c:v>
+                  <c:v>278.36000000000013</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>273.42000000000013</c:v>
+                  <c:v>278.42000000000013</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>273.48000000000013</c:v>
+                  <c:v>278.48000000000013</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>273.54000000000013</c:v>
+                  <c:v>278.54000000000013</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>273.60000000000014</c:v>
+                  <c:v>278.60000000000014</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>273.66000000000014</c:v>
+                  <c:v>278.66000000000014</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>273.72000000000014</c:v>
+                  <c:v>278.72000000000014</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>273.78000000000014</c:v>
+                  <c:v>278.78000000000014</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>273.84000000000015</c:v>
+                  <c:v>278.84000000000015</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>273.90000000000015</c:v>
+                  <c:v>278.90000000000015</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>273.96000000000015</c:v>
+                  <c:v>278.96000000000015</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>274.02000000000015</c:v>
+                  <c:v>279.02000000000015</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>274.08000000000015</c:v>
+                  <c:v>279.08000000000015</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>274.14000000000016</c:v>
+                  <c:v>279.14000000000016</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>274.20000000000016</c:v>
+                  <c:v>279.20000000000016</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>274.26000000000016</c:v>
+                  <c:v>279.26000000000016</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>274.32000000000016</c:v>
+                  <c:v>279.32000000000016</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>274.38000000000017</c:v>
+                  <c:v>279.38000000000017</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>274.44000000000017</c:v>
+                  <c:v>279.44000000000017</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>274.50000000000017</c:v>
+                  <c:v>279.50000000000017</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>274.56000000000017</c:v>
+                  <c:v>279.56000000000017</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>274.62000000000018</c:v>
+                  <c:v>279.62000000000018</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>274.68000000000018</c:v>
+                  <c:v>279.68000000000018</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>274.74000000000018</c:v>
+                  <c:v>279.74000000000018</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>274.80000000000018</c:v>
+                  <c:v>279.80000000000018</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>274.86000000000018</c:v>
+                  <c:v>279.86000000000018</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>274.92000000000019</c:v>
+                  <c:v>279.92000000000019</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>274.98000000000019</c:v>
+                  <c:v>279.98000000000019</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>275.04000000000019</c:v>
+                  <c:v>280.04000000000019</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>275.10000000000019</c:v>
+                  <c:v>280.10000000000019</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>275.1600000000002</c:v>
+                  <c:v>280.1600000000002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>275.2200000000002</c:v>
+                  <c:v>280.2200000000002</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>275.2800000000002</c:v>
+                  <c:v>280.2800000000002</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>275.3400000000002</c:v>
+                  <c:v>280.3400000000002</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>275.4000000000002</c:v>
+                  <c:v>280.4000000000002</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>275.46000000000021</c:v>
+                  <c:v>280.46000000000021</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>275.52000000000021</c:v>
+                  <c:v>280.52000000000021</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>275.58000000000021</c:v>
+                  <c:v>280.58000000000021</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>275.64000000000021</c:v>
+                  <c:v>280.64000000000021</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>275.70000000000022</c:v>
+                  <c:v>280.70000000000022</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>275.76000000000022</c:v>
+                  <c:v>280.76000000000022</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>275.82000000000022</c:v>
+                  <c:v>280.82000000000022</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>275.88000000000022</c:v>
+                  <c:v>280.88000000000022</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>275.94000000000023</c:v>
+                  <c:v>280.94000000000023</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>276.00000000000023</c:v>
+                  <c:v>281.00000000000023</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>276.06000000000023</c:v>
+                  <c:v>281.06000000000023</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>276.12000000000023</c:v>
+                  <c:v>281.12000000000023</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>276.18000000000023</c:v>
+                  <c:v>281.18000000000023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>276.24000000000024</c:v>
+                  <c:v>281.24000000000024</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>276.30000000000024</c:v>
+                  <c:v>281.30000000000024</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>276.36000000000024</c:v>
+                  <c:v>281.36000000000024</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>276.42000000000024</c:v>
+                  <c:v>281.42000000000024</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>276.48000000000025</c:v>
+                  <c:v>281.48000000000025</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>276.54000000000025</c:v>
+                  <c:v>281.54000000000025</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>276.60000000000025</c:v>
+                  <c:v>281.60000000000025</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>276.66000000000025</c:v>
+                  <c:v>281.66000000000025</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>276.72000000000025</c:v>
+                  <c:v>281.72000000000025</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>276.78000000000026</c:v>
+                  <c:v>281.78000000000026</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>276.84000000000026</c:v>
+                  <c:v>281.84000000000026</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>276.90000000000026</c:v>
+                  <c:v>281.90000000000026</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>276.96000000000026</c:v>
+                  <c:v>281.96000000000026</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>277.02000000000027</c:v>
+                  <c:v>282.02000000000027</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>277.08000000000027</c:v>
+                  <c:v>282.08000000000027</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>277.14000000000027</c:v>
+                  <c:v>282.14000000000027</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>277.20000000000027</c:v>
+                  <c:v>282.20000000000027</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>277.26000000000028</c:v>
+                  <c:v>282.26000000000028</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>277.32000000000028</c:v>
+                  <c:v>282.32000000000028</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>277.38000000000028</c:v>
+                  <c:v>282.38000000000028</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>277.44000000000028</c:v>
+                  <c:v>282.44000000000028</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>277.50000000000028</c:v>
+                  <c:v>282.50000000000028</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>277.56000000000029</c:v>
+                  <c:v>282.56000000000029</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>277.62000000000029</c:v>
+                  <c:v>282.62000000000029</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>277.68000000000029</c:v>
+                  <c:v>282.68000000000029</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>277.74000000000029</c:v>
+                  <c:v>282.74000000000029</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>277.8000000000003</c:v>
+                  <c:v>282.8000000000003</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>277.8600000000003</c:v>
+                  <c:v>282.8600000000003</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>277.9200000000003</c:v>
+                  <c:v>282.9200000000003</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>277.9800000000003</c:v>
+                  <c:v>282.9800000000003</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>278.0400000000003</c:v>
+                  <c:v>283.0400000000003</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>278.10000000000031</c:v>
+                  <c:v>283.10000000000031</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>278.16000000000031</c:v>
+                  <c:v>283.16000000000031</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>278.22000000000031</c:v>
+                  <c:v>283.22000000000031</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>278.28000000000031</c:v>
+                  <c:v>283.28000000000031</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>278.34000000000032</c:v>
+                  <c:v>283.34000000000032</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>278.40000000000032</c:v>
+                  <c:v>283.40000000000032</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>278.46000000000032</c:v>
+                  <c:v>283.46000000000032</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>278.52000000000032</c:v>
+                  <c:v>283.52000000000032</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>278.58000000000033</c:v>
+                  <c:v>283.58000000000033</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>278.64000000000033</c:v>
+                  <c:v>283.64000000000033</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>278.70000000000033</c:v>
+                  <c:v>283.70000000000033</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>278.76000000000033</c:v>
+                  <c:v>283.76000000000033</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>278.82000000000033</c:v>
+                  <c:v>283.82000000000033</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>278.88000000000034</c:v>
+                  <c:v>283.88000000000034</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>278.94000000000034</c:v>
+                  <c:v>283.94000000000034</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>279.00000000000034</c:v>
+                  <c:v>284.00000000000034</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>279.06000000000034</c:v>
+                  <c:v>284.06000000000034</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>279.12000000000035</c:v>
+                  <c:v>284.12000000000035</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>279.18000000000035</c:v>
+                  <c:v>284.18000000000035</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>279.24000000000035</c:v>
+                  <c:v>284.24000000000035</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>279.30000000000035</c:v>
+                  <c:v>284.30000000000035</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>279.36000000000035</c:v>
+                  <c:v>284.36000000000035</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>279.42000000000036</c:v>
+                  <c:v>284.42000000000036</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>279.48000000000036</c:v>
+                  <c:v>284.48000000000036</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>279.54000000000036</c:v>
+                  <c:v>284.54000000000036</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>279.60000000000036</c:v>
+                  <c:v>284.60000000000036</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>279.66000000000037</c:v>
+                  <c:v>284.66000000000037</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>279.72000000000037</c:v>
+                  <c:v>284.72000000000037</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>279.78000000000037</c:v>
+                  <c:v>284.78000000000037</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>279.84000000000037</c:v>
+                  <c:v>284.84000000000037</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>279.90000000000038</c:v>
+                  <c:v>284.90000000000038</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>279.96000000000038</c:v>
+                  <c:v>284.96000000000038</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>280.02000000000038</c:v>
+                  <c:v>285.02000000000038</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>280.08000000000038</c:v>
+                  <c:v>285.08000000000038</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>280.14000000000038</c:v>
+                  <c:v>285.14000000000038</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>280.20000000000039</c:v>
+                  <c:v>285.20000000000039</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>280.26000000000039</c:v>
+                  <c:v>285.26000000000039</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>280.32000000000039</c:v>
+                  <c:v>285.32000000000039</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>280.38000000000039</c:v>
+                  <c:v>285.38000000000039</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>280.4400000000004</c:v>
+                  <c:v>285.4400000000004</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>280.5000000000004</c:v>
+                  <c:v>285.5000000000004</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>280.5600000000004</c:v>
+                  <c:v>285.5600000000004</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>280.6200000000004</c:v>
+                  <c:v>285.6200000000004</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>280.6800000000004</c:v>
+                  <c:v>285.6800000000004</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>280.74000000000041</c:v>
+                  <c:v>285.74000000000041</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>280.80000000000041</c:v>
+                  <c:v>285.80000000000041</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>280.86000000000041</c:v>
+                  <c:v>285.86000000000041</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>280.92000000000041</c:v>
+                  <c:v>285.92000000000041</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>280.98000000000042</c:v>
+                  <c:v>285.98000000000042</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>281.04000000000042</c:v>
+                  <c:v>286.04000000000042</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>281.10000000000042</c:v>
+                  <c:v>286.10000000000042</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>281.16000000000042</c:v>
+                  <c:v>286.16000000000042</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>281.22000000000043</c:v>
+                  <c:v>286.22000000000043</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>281.28000000000043</c:v>
+                  <c:v>286.28000000000043</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>281.34000000000043</c:v>
+                  <c:v>286.34000000000043</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>281.40000000000043</c:v>
+                  <c:v>286.40000000000043</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>281.46000000000043</c:v>
+                  <c:v>286.46000000000043</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>281.52000000000044</c:v>
+                  <c:v>286.52000000000044</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>281.58000000000044</c:v>
+                  <c:v>286.58000000000044</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>281.64000000000044</c:v>
+                  <c:v>286.64000000000044</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>281.70000000000044</c:v>
+                  <c:v>286.70000000000044</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>281.76000000000045</c:v>
+                  <c:v>286.76000000000045</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>281.82000000000045</c:v>
+                  <c:v>286.82000000000045</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>281.88000000000045</c:v>
+                  <c:v>286.88000000000045</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>281.94000000000045</c:v>
+                  <c:v>286.94000000000045</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>282.00000000000045</c:v>
+                  <c:v>287.00000000000045</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>282.06000000000046</c:v>
+                  <c:v>287.06000000000046</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>282.12000000000046</c:v>
+                  <c:v>287.12000000000046</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>282.18000000000046</c:v>
+                  <c:v>287.18000000000046</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>282.24000000000046</c:v>
+                  <c:v>287.24000000000046</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>282.30000000000047</c:v>
+                  <c:v>287.30000000000047</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>282.36000000000047</c:v>
+                  <c:v>287.36000000000047</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>282.42000000000047</c:v>
+                  <c:v>287.42000000000047</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>282.48000000000047</c:v>
+                  <c:v>287.48000000000047</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>282.54000000000048</c:v>
+                  <c:v>287.54000000000048</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>282.60000000000048</c:v>
+                  <c:v>287.60000000000048</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>282.66000000000048</c:v>
+                  <c:v>287.66000000000048</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>282.72000000000048</c:v>
+                  <c:v>287.72000000000048</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>282.78000000000048</c:v>
+                  <c:v>287.78000000000048</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>282.84000000000049</c:v>
+                  <c:v>287.84000000000049</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>282.90000000000049</c:v>
+                  <c:v>287.90000000000049</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>282.96000000000049</c:v>
+                  <c:v>287.96000000000049</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>283.02000000000049</c:v>
+                  <c:v>288.02000000000049</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>283.0800000000005</c:v>
+                  <c:v>288.0800000000005</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>283.1400000000005</c:v>
+                  <c:v>288.1400000000005</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>283.2000000000005</c:v>
+                  <c:v>288.2000000000005</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>283.2600000000005</c:v>
+                  <c:v>288.2600000000005</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>283.3200000000005</c:v>
+                  <c:v>288.3200000000005</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>283.38000000000051</c:v>
+                  <c:v>288.38000000000051</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>283.44000000000051</c:v>
+                  <c:v>288.44000000000051</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>283.50000000000051</c:v>
+                  <c:v>288.50000000000051</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>283.56000000000051</c:v>
+                  <c:v>288.56000000000051</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>283.62000000000052</c:v>
+                  <c:v>288.62000000000052</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>283.68000000000052</c:v>
+                  <c:v>288.68000000000052</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>283.74000000000052</c:v>
+                  <c:v>288.74000000000052</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>283.80000000000052</c:v>
+                  <c:v>288.80000000000052</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>283.86000000000053</c:v>
+                  <c:v>288.86000000000053</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>283.92000000000053</c:v>
+                  <c:v>288.92000000000053</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>283.98000000000053</c:v>
+                  <c:v>288.98000000000053</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>284.04000000000053</c:v>
+                  <c:v>289.04000000000053</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>284.10000000000053</c:v>
+                  <c:v>289.10000000000053</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>284.16000000000054</c:v>
+                  <c:v>289.16000000000054</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>284.22000000000054</c:v>
+                  <c:v>289.22000000000054</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>284.28000000000054</c:v>
+                  <c:v>289.28000000000054</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>284.34000000000054</c:v>
+                  <c:v>289.34000000000054</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>284.40000000000055</c:v>
+                  <c:v>289.40000000000055</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>284.46000000000055</c:v>
+                  <c:v>289.46000000000055</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>284.52000000000055</c:v>
+                  <c:v>289.52000000000055</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>284.58000000000055</c:v>
+                  <c:v>289.58000000000055</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>284.64000000000055</c:v>
+                  <c:v>289.64000000000055</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>284.70000000000056</c:v>
+                  <c:v>289.70000000000056</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>284.76000000000056</c:v>
+                  <c:v>289.76000000000056</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>284.82000000000056</c:v>
+                  <c:v>289.82000000000056</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>284.88000000000056</c:v>
+                  <c:v>289.88000000000056</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>284.94000000000057</c:v>
+                  <c:v>289.94000000000057</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>285.00000000000057</c:v>
+                  <c:v>290.00000000000057</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>285.06000000000057</c:v>
+                  <c:v>290.06000000000057</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>285.12000000000057</c:v>
+                  <c:v>290.12000000000057</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>285.18000000000058</c:v>
+                  <c:v>290.18000000000058</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>285.24000000000058</c:v>
+                  <c:v>290.24000000000058</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>285.30000000000058</c:v>
+                  <c:v>290.30000000000058</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>285.36000000000058</c:v>
+                  <c:v>290.36000000000058</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>285.42000000000058</c:v>
+                  <c:v>290.42000000000058</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>285.48000000000059</c:v>
+                  <c:v>290.48000000000059</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>285.54000000000059</c:v>
+                  <c:v>290.54000000000059</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>285.60000000000059</c:v>
+                  <c:v>290.60000000000059</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>285.66000000000059</c:v>
+                  <c:v>290.66000000000059</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>285.7200000000006</c:v>
+                  <c:v>290.7200000000006</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>285.7800000000006</c:v>
+                  <c:v>290.7800000000006</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>285.8400000000006</c:v>
+                  <c:v>290.8400000000006</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>285.9000000000006</c:v>
+                  <c:v>290.9000000000006</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>285.9600000000006</c:v>
+                  <c:v>290.9600000000006</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>286.02000000000061</c:v>
+                  <c:v>291.02000000000061</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>286.08000000000061</c:v>
+                  <c:v>291.08000000000061</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>286.14000000000061</c:v>
+                  <c:v>291.14000000000061</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>286.20000000000061</c:v>
+                  <c:v>291.20000000000061</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>286.26000000000062</c:v>
+                  <c:v>291.26000000000062</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>286.32000000000062</c:v>
+                  <c:v>291.32000000000062</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>286.38000000000062</c:v>
+                  <c:v>291.38000000000062</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>286.44000000000062</c:v>
+                  <c:v>291.44000000000062</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>286.50000000000063</c:v>
+                  <c:v>291.50000000000063</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>286.56000000000063</c:v>
+                  <c:v>291.56000000000063</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>286.62000000000063</c:v>
+                  <c:v>291.62000000000063</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>286.68000000000063</c:v>
+                  <c:v>291.68000000000063</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>286.74000000000063</c:v>
+                  <c:v>291.74000000000063</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>286.80000000000064</c:v>
+                  <c:v>291.80000000000064</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>286.86000000000064</c:v>
+                  <c:v>291.86000000000064</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>286.92000000000064</c:v>
+                  <c:v>291.92000000000064</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>286.98000000000064</c:v>
+                  <c:v>291.98000000000064</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>287.04000000000065</c:v>
+                  <c:v>292.04000000000065</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>287.10000000000065</c:v>
+                  <c:v>292.10000000000065</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>287.16000000000065</c:v>
+                  <c:v>292.16000000000065</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>287.22000000000065</c:v>
+                  <c:v>292.22000000000065</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>287.28000000000065</c:v>
+                  <c:v>292.28000000000065</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>287.34000000000066</c:v>
+                  <c:v>292.34000000000066</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>287.40000000000066</c:v>
+                  <c:v>292.40000000000066</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>287.46000000000066</c:v>
+                  <c:v>292.46000000000066</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>287.52000000000066</c:v>
+                  <c:v>292.52000000000066</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>287.58000000000067</c:v>
+                  <c:v>292.58000000000067</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>287.64000000000067</c:v>
+                  <c:v>292.64000000000067</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>287.70000000000067</c:v>
+                  <c:v>292.70000000000067</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>287.76000000000067</c:v>
+                  <c:v>292.76000000000067</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>287.82000000000068</c:v>
+                  <c:v>292.82000000000068</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>287.88000000000068</c:v>
+                  <c:v>292.88000000000068</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>287.94000000000068</c:v>
+                  <c:v>292.94000000000068</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>288.00000000000068</c:v>
+                  <c:v>293.00000000000068</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>288.06000000000068</c:v>
+                  <c:v>293.06000000000068</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>288.12000000000069</c:v>
+                  <c:v>293.12000000000069</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>288.18000000000069</c:v>
+                  <c:v>293.18000000000069</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>288.24000000000069</c:v>
+                  <c:v>293.24000000000069</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>288.30000000000069</c:v>
+                  <c:v>293.30000000000069</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>288.3600000000007</c:v>
+                  <c:v>293.3600000000007</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>288.4200000000007</c:v>
+                  <c:v>293.4200000000007</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>288.4800000000007</c:v>
+                  <c:v>293.4800000000007</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>288.5400000000007</c:v>
+                  <c:v>293.5400000000007</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>288.6000000000007</c:v>
+                  <c:v>293.6000000000007</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>288.66000000000071</c:v>
+                  <c:v>293.66000000000071</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>288.72000000000071</c:v>
+                  <c:v>293.72000000000071</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>288.78000000000071</c:v>
+                  <c:v>293.78000000000071</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>288.84000000000071</c:v>
+                  <c:v>293.84000000000071</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>288.90000000000072</c:v>
+                  <c:v>293.90000000000072</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>288.96000000000072</c:v>
+                  <c:v>293.96000000000072</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>289.02000000000072</c:v>
+                  <c:v>294.02000000000072</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>289.08000000000072</c:v>
+                  <c:v>294.08000000000072</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>289.14000000000073</c:v>
+                  <c:v>294.14000000000073</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>289.20000000000073</c:v>
+                  <c:v>294.20000000000073</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>289.26000000000073</c:v>
+                  <c:v>294.26000000000073</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>289.32000000000073</c:v>
+                  <c:v>294.32000000000073</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>289.38000000000073</c:v>
+                  <c:v>294.38000000000073</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>289.44000000000074</c:v>
+                  <c:v>294.44000000000074</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>289.50000000000074</c:v>
+                  <c:v>294.50000000000074</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>289.56000000000074</c:v>
+                  <c:v>294.56000000000074</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>289.62000000000074</c:v>
+                  <c:v>294.62000000000074</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>289.68000000000075</c:v>
+                  <c:v>294.68000000000075</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>289.74000000000075</c:v>
+                  <c:v>294.74000000000075</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>289.80000000000075</c:v>
+                  <c:v>294.80000000000075</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>289.86000000000075</c:v>
+                  <c:v>294.86000000000075</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>289.92000000000075</c:v>
+                  <c:v>294.92000000000075</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>289.98000000000076</c:v>
+                  <c:v>294.98000000000076</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>290.04000000000076</c:v>
+                  <c:v>295.04000000000076</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>290.10000000000076</c:v>
+                  <c:v>295.10000000000076</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>290.16000000000076</c:v>
+                  <c:v>295.16000000000076</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>290.22000000000077</c:v>
+                  <c:v>295.22000000000077</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>290.28000000000077</c:v>
+                  <c:v>295.28000000000077</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>290.34000000000077</c:v>
+                  <c:v>295.34000000000077</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>290.40000000000077</c:v>
+                  <c:v>295.40000000000077</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>290.46000000000078</c:v>
+                  <c:v>295.46000000000078</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>290.52000000000078</c:v>
+                  <c:v>295.52000000000078</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>290.58000000000078</c:v>
+                  <c:v>295.58000000000078</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>290.64000000000078</c:v>
+                  <c:v>295.64000000000078</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>290.70000000000078</c:v>
+                  <c:v>295.70000000000078</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>290.76000000000079</c:v>
+                  <c:v>295.76000000000079</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>290.82000000000079</c:v>
+                  <c:v>295.82000000000079</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>290.88000000000079</c:v>
+                  <c:v>295.88000000000079</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>290.94000000000079</c:v>
+                  <c:v>295.94000000000079</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>291.0000000000008</c:v>
+                  <c:v>296.0000000000008</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>291.0600000000008</c:v>
+                  <c:v>296.0600000000008</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>291.1200000000008</c:v>
+                  <c:v>296.1200000000008</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>291.1800000000008</c:v>
+                  <c:v>296.1800000000008</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>291.2400000000008</c:v>
+                  <c:v>296.2400000000008</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>291.30000000000081</c:v>
+                  <c:v>296.30000000000081</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>291.36000000000081</c:v>
+                  <c:v>296.36000000000081</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>291.42000000000081</c:v>
+                  <c:v>296.42000000000081</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>291.48000000000081</c:v>
+                  <c:v>296.48000000000081</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>291.54000000000082</c:v>
+                  <c:v>296.54000000000082</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>291.60000000000082</c:v>
+                  <c:v>296.60000000000082</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>291.66000000000082</c:v>
+                  <c:v>296.66000000000082</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>291.72000000000082</c:v>
+                  <c:v>296.72000000000082</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>291.78000000000083</c:v>
+                  <c:v>296.78000000000083</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>291.84000000000083</c:v>
+                  <c:v>296.84000000000083</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>291.90000000000083</c:v>
+                  <c:v>296.90000000000083</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>291.96000000000083</c:v>
+                  <c:v>296.96000000000083</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>292.02000000000083</c:v>
+                  <c:v>297.02000000000083</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>292.08000000000084</c:v>
+                  <c:v>297.08000000000084</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>292.14000000000084</c:v>
+                  <c:v>297.14000000000084</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>292.20000000000084</c:v>
+                  <c:v>297.20000000000084</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>292.26000000000084</c:v>
+                  <c:v>297.26000000000084</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>292.32000000000085</c:v>
+                  <c:v>297.32000000000085</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>292.38000000000085</c:v>
+                  <c:v>297.38000000000085</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>292.44000000000085</c:v>
+                  <c:v>297.44000000000085</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>292.50000000000085</c:v>
+                  <c:v>297.50000000000085</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>292.56000000000085</c:v>
+                  <c:v>297.56000000000085</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>292.62000000000086</c:v>
+                  <c:v>297.62000000000086</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>292.68000000000086</c:v>
+                  <c:v>297.68000000000086</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>292.74000000000086</c:v>
+                  <c:v>297.74000000000086</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>292.80000000000086</c:v>
+                  <c:v>297.80000000000086</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>292.86000000000087</c:v>
+                  <c:v>297.86000000000087</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>292.92000000000087</c:v>
+                  <c:v>297.92000000000087</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>292.98000000000087</c:v>
+                  <c:v>297.98000000000087</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>293.04000000000087</c:v>
+                  <c:v>298.04000000000087</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>293.10000000000088</c:v>
+                  <c:v>298.10000000000088</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>293.16000000000088</c:v>
+                  <c:v>298.16000000000088</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>293.22000000000088</c:v>
+                  <c:v>298.22000000000088</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>293.28000000000088</c:v>
+                  <c:v>298.28000000000088</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>293.34000000000088</c:v>
+                  <c:v>298.34000000000088</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>293.40000000000089</c:v>
+                  <c:v>298.40000000000089</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>293.46000000000089</c:v>
+                  <c:v>298.46000000000089</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>293.52000000000089</c:v>
+                  <c:v>298.52000000000089</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>293.58000000000089</c:v>
+                  <c:v>298.58000000000089</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>293.6400000000009</c:v>
+                  <c:v>298.6400000000009</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>293.7000000000009</c:v>
+                  <c:v>298.7000000000009</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>293.7600000000009</c:v>
+                  <c:v>298.7600000000009</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>293.8200000000009</c:v>
+                  <c:v>298.8200000000009</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>293.8800000000009</c:v>
+                  <c:v>298.8800000000009</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>293.94000000000091</c:v>
+                  <c:v>298.94000000000091</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>294.00000000000091</c:v>
+                  <c:v>299.00000000000091</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>294.06000000000091</c:v>
+                  <c:v>299.06000000000091</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>294.12000000000091</c:v>
+                  <c:v>299.12000000000091</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>294.18000000000092</c:v>
+                  <c:v>299.18000000000092</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>294.24000000000092</c:v>
+                  <c:v>299.24000000000092</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>294.30000000000092</c:v>
+                  <c:v>299.30000000000092</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>294.36000000000092</c:v>
+                  <c:v>299.36000000000092</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>294.42000000000093</c:v>
+                  <c:v>299.42000000000093</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>294.48000000000093</c:v>
+                  <c:v>299.48000000000093</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>294.54000000000093</c:v>
+                  <c:v>299.54000000000093</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>294.60000000000093</c:v>
+                  <c:v>299.60000000000093</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>294.66000000000093</c:v>
+                  <c:v>299.66000000000093</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>294.72000000000094</c:v>
+                  <c:v>299.72000000000094</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>294.78000000000094</c:v>
+                  <c:v>299.78000000000094</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>294.84000000000094</c:v>
+                  <c:v>299.84000000000094</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>294.90000000000094</c:v>
+                  <c:v>299.90000000000094</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>294.96000000000095</c:v>
+                  <c:v>299.96000000000095</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>295.02000000000095</c:v>
+                  <c:v>300.02000000000095</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>295.08000000000095</c:v>
+                  <c:v>300.08000000000095</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>295.14000000000095</c:v>
+                  <c:v>300.14000000000095</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>295.20000000000095</c:v>
+                  <c:v>300.20000000000095</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>295.26000000000096</c:v>
+                  <c:v>300.26000000000096</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>295.32000000000096</c:v>
+                  <c:v>300.32000000000096</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>295.38000000000096</c:v>
+                  <c:v>300.38000000000096</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>295.44000000000096</c:v>
+                  <c:v>300.44000000000096</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>295.50000000000097</c:v>
+                  <c:v>300.50000000000097</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>295.56000000000097</c:v>
+                  <c:v>300.56000000000097</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>295.62000000000097</c:v>
+                  <c:v>300.62000000000097</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>295.68000000000097</c:v>
+                  <c:v>300.68000000000097</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>295.74000000000098</c:v>
+                  <c:v>300.74000000000098</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>295.80000000000098</c:v>
+                  <c:v>300.80000000000098</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>295.86000000000098</c:v>
+                  <c:v>300.86000000000098</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>295.92000000000098</c:v>
+                  <c:v>300.92000000000098</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>295.98000000000098</c:v>
+                  <c:v>300.98000000000098</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>296.04000000000099</c:v>
+                  <c:v>301.04000000000099</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>296.10000000000099</c:v>
+                  <c:v>301.10000000000099</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>296.16000000000099</c:v>
+                  <c:v>301.16000000000099</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>296.22000000000099</c:v>
+                  <c:v>301.22000000000099</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>296.280000000001</c:v>
+                  <c:v>301.280000000001</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>296.340000000001</c:v>
+                  <c:v>301.340000000001</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>296.400000000001</c:v>
+                  <c:v>301.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>296.460000000001</c:v>
+                  <c:v>301.460000000001</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>296.520000000001</c:v>
+                  <c:v>301.520000000001</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>296.58000000000101</c:v>
+                  <c:v>301.58000000000101</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>296.64000000000101</c:v>
+                  <c:v>301.64000000000101</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>296.70000000000101</c:v>
+                  <c:v>301.70000000000101</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>296.76000000000101</c:v>
+                  <c:v>301.76000000000101</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>296.82000000000102</c:v>
+                  <c:v>301.82000000000102</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>296.88000000000102</c:v>
+                  <c:v>301.88000000000102</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>296.94000000000102</c:v>
+                  <c:v>301.94000000000102</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>297.00000000000102</c:v>
+                  <c:v>302.00000000000102</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>297.06000000000103</c:v>
+                  <c:v>302.06000000000103</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>297.12000000000103</c:v>
+                  <c:v>302.12000000000103</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>297.18000000000103</c:v>
+                  <c:v>302.18000000000103</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>297.24000000000103</c:v>
+                  <c:v>302.24000000000103</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>297.30000000000103</c:v>
+                  <c:v>302.30000000000103</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>297.36000000000104</c:v>
+                  <c:v>302.36000000000104</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>297.42000000000104</c:v>
+                  <c:v>302.42000000000104</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>297.48000000000104</c:v>
+                  <c:v>302.48000000000104</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>297.54000000000104</c:v>
+                  <c:v>302.54000000000104</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>297.60000000000105</c:v>
+                  <c:v>302.60000000000105</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>297.66000000000105</c:v>
+                  <c:v>302.66000000000105</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>297.72000000000105</c:v>
+                  <c:v>302.72000000000105</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>297.78000000000105</c:v>
+                  <c:v>302.78000000000105</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>297.84000000000106</c:v>
+                  <c:v>302.84000000000106</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>297.90000000000106</c:v>
+                  <c:v>302.90000000000106</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>297.96000000000106</c:v>
+                  <c:v>302.96000000000106</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>298.02000000000106</c:v>
+                  <c:v>303.02000000000106</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>298.08000000000106</c:v>
+                  <c:v>303.08000000000106</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>298.14000000000107</c:v>
+                  <c:v>303.14000000000107</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>298.20000000000107</c:v>
+                  <c:v>303.20000000000107</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>298.26000000000107</c:v>
+                  <c:v>303.26000000000107</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>298.32000000000107</c:v>
+                  <c:v>303.32000000000107</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>298.38000000000108</c:v>
+                  <c:v>303.38000000000108</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>298.44000000000108</c:v>
+                  <c:v>303.44000000000108</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>298.50000000000108</c:v>
+                  <c:v>303.50000000000108</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>298.56000000000108</c:v>
+                  <c:v>303.56000000000108</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>298.62000000000108</c:v>
+                  <c:v>303.62000000000108</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>298.68000000000109</c:v>
+                  <c:v>303.68000000000109</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>298.74000000000109</c:v>
+                  <c:v>303.74000000000109</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>298.80000000000109</c:v>
+                  <c:v>303.80000000000109</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>298.86000000000109</c:v>
+                  <c:v>303.86000000000109</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>298.9200000000011</c:v>
+                  <c:v>303.9200000000011</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>298.9800000000011</c:v>
+                  <c:v>303.9800000000011</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>299.0400000000011</c:v>
+                  <c:v>304.0400000000011</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>299.1000000000011</c:v>
+                  <c:v>304.1000000000011</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>299.16000000000111</c:v>
+                  <c:v>304.16000000000111</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>299.22000000000111</c:v>
+                  <c:v>304.22000000000111</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>299.28000000000111</c:v>
+                  <c:v>304.28000000000111</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>299.34000000000111</c:v>
+                  <c:v>304.34000000000111</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>299.40000000000111</c:v>
+                  <c:v>304.40000000000111</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>299.46000000000112</c:v>
+                  <c:v>304.46000000000112</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>299.52000000000112</c:v>
+                  <c:v>304.52000000000112</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>299.58000000000112</c:v>
+                  <c:v>304.58000000000112</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>299.64000000000112</c:v>
+                  <c:v>304.64000000000112</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>299.70000000000113</c:v>
+                  <c:v>304.70000000000113</c:v>
                 </c:pt>
                 <c:pt idx="496">
-                  <c:v>299.76000000000113</c:v>
+                  <c:v>304.76000000000113</c:v>
                 </c:pt>
                 <c:pt idx="497">
-                  <c:v>299.82000000000113</c:v>
+                  <c:v>304.82000000000113</c:v>
                 </c:pt>
                 <c:pt idx="498">
-                  <c:v>299.88000000000113</c:v>
+                  <c:v>304.88000000000113</c:v>
                 </c:pt>
                 <c:pt idx="499">
-                  <c:v>299.94000000000113</c:v>
+                  <c:v>304.94000000000113</c:v>
                 </c:pt>
                 <c:pt idx="500">
-                  <c:v>300.00000000000114</c:v>
+                  <c:v>305.00000000000114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4267,11 +4265,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J661"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4300,7 +4298,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="15">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4324,7 +4322,7 @@
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="16">
         <f>$C$3-3*$C$4</f>
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B161" s="16">
         <f>NORMDIST(A161, $C$3, $C$4, FALSE)</f>
@@ -4338,7 +4336,7 @@
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="16">
         <f>A161+$C$161</f>
-        <v>270.06</v>
+        <v>275.06</v>
       </c>
       <c r="B162" s="16">
         <f t="shared" ref="B162:B225" si="0">NORMDIST(A162, $C$3, $C$4, FALSE)</f>
@@ -4349,7 +4347,7 @@
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="16">
         <f t="shared" ref="A163:A226" si="1">A162+$C$161</f>
-        <v>270.12</v>
+        <v>275.12</v>
       </c>
       <c r="B163" s="16">
         <f t="shared" si="0"/>
@@ -4360,7 +4358,7 @@
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="16">
         <f t="shared" si="1"/>
-        <v>270.18</v>
+        <v>275.18</v>
       </c>
       <c r="B164" s="16">
         <f t="shared" si="0"/>
@@ -4371,7 +4369,7 @@
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="16">
         <f t="shared" si="1"/>
-        <v>270.24</v>
+        <v>275.24</v>
       </c>
       <c r="B165" s="16">
         <f t="shared" si="0"/>
@@ -4382,7 +4380,7 @@
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="16">
         <f t="shared" si="1"/>
-        <v>270.3</v>
+        <v>275.3</v>
       </c>
       <c r="B166" s="16">
         <f t="shared" si="0"/>
@@ -4393,7 +4391,7 @@
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="16">
         <f t="shared" si="1"/>
-        <v>270.36</v>
+        <v>275.36</v>
       </c>
       <c r="B167" s="16">
         <f t="shared" si="0"/>
@@ -4404,7 +4402,7 @@
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="16">
         <f t="shared" si="1"/>
-        <v>270.42</v>
+        <v>275.42</v>
       </c>
       <c r="B168" s="16">
         <f t="shared" si="0"/>
@@ -4415,7 +4413,7 @@
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="16">
         <f t="shared" si="1"/>
-        <v>270.48</v>
+        <v>275.48</v>
       </c>
       <c r="B169" s="16">
         <f t="shared" si="0"/>
@@ -4426,7 +4424,7 @@
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="16">
         <f t="shared" si="1"/>
-        <v>270.54000000000002</v>
+        <v>275.54000000000002</v>
       </c>
       <c r="B170" s="16">
         <f t="shared" si="0"/>
@@ -4437,7 +4435,7 @@
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="16">
         <f t="shared" si="1"/>
-        <v>270.60000000000002</v>
+        <v>275.60000000000002</v>
       </c>
       <c r="B171" s="16">
         <f t="shared" si="0"/>
@@ -4448,7 +4446,7 @@
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="16">
         <f t="shared" si="1"/>
-        <v>270.66000000000003</v>
+        <v>275.66000000000003</v>
       </c>
       <c r="B172" s="16">
         <f t="shared" si="0"/>
@@ -4459,7 +4457,7 @@
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="16">
         <f t="shared" si="1"/>
-        <v>270.72000000000003</v>
+        <v>275.72000000000003</v>
       </c>
       <c r="B173" s="16">
         <f t="shared" si="0"/>
@@ -4470,7 +4468,7 @@
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="16">
         <f t="shared" si="1"/>
-        <v>270.78000000000003</v>
+        <v>275.78000000000003</v>
       </c>
       <c r="B174" s="16">
         <f t="shared" si="0"/>
@@ -4481,7 +4479,7 @@
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="16">
         <f t="shared" si="1"/>
-        <v>270.84000000000003</v>
+        <v>275.84000000000003</v>
       </c>
       <c r="B175" s="16">
         <f t="shared" si="0"/>
@@ -4492,7 +4490,7 @@
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="16">
         <f t="shared" si="1"/>
-        <v>270.90000000000003</v>
+        <v>275.90000000000003</v>
       </c>
       <c r="B176" s="16">
         <f t="shared" si="0"/>
@@ -4503,7 +4501,7 @@
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="16">
         <f t="shared" si="1"/>
-        <v>270.96000000000004</v>
+        <v>275.96000000000004</v>
       </c>
       <c r="B177" s="16">
         <f t="shared" si="0"/>
@@ -4514,7 +4512,7 @@
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="16">
         <f t="shared" si="1"/>
-        <v>271.02000000000004</v>
+        <v>276.02000000000004</v>
       </c>
       <c r="B178" s="16">
         <f t="shared" si="0"/>
@@ -4525,7 +4523,7 @@
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="16">
         <f t="shared" si="1"/>
-        <v>271.08000000000004</v>
+        <v>276.08000000000004</v>
       </c>
       <c r="B179" s="16">
         <f t="shared" si="0"/>
@@ -4537,7 +4535,7 @@
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="16">
         <f t="shared" si="1"/>
-        <v>271.14000000000004</v>
+        <v>276.14000000000004</v>
       </c>
       <c r="B180" s="16">
         <f t="shared" si="0"/>
@@ -4548,7 +4546,7 @@
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="16">
         <f t="shared" si="1"/>
-        <v>271.20000000000005</v>
+        <v>276.20000000000005</v>
       </c>
       <c r="B181" s="16">
         <f t="shared" si="0"/>
@@ -4559,7 +4557,7 @@
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="16">
         <f t="shared" si="1"/>
-        <v>271.26000000000005</v>
+        <v>276.26000000000005</v>
       </c>
       <c r="B182" s="16">
         <f t="shared" si="0"/>
@@ -4570,7 +4568,7 @@
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="16">
         <f t="shared" si="1"/>
-        <v>271.32000000000005</v>
+        <v>276.32000000000005</v>
       </c>
       <c r="B183" s="16">
         <f t="shared" si="0"/>
@@ -4581,7 +4579,7 @@
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="16">
         <f t="shared" si="1"/>
-        <v>271.38000000000005</v>
+        <v>276.38000000000005</v>
       </c>
       <c r="B184" s="16">
         <f t="shared" si="0"/>
@@ -4592,7 +4590,7 @@
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="16">
         <f t="shared" si="1"/>
-        <v>271.44000000000005</v>
+        <v>276.44000000000005</v>
       </c>
       <c r="B185" s="16">
         <f t="shared" si="0"/>
@@ -4603,7 +4601,7 @@
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="16">
         <f t="shared" si="1"/>
-        <v>271.50000000000006</v>
+        <v>276.50000000000006</v>
       </c>
       <c r="B186" s="16">
         <f t="shared" si="0"/>
@@ -4614,7 +4612,7 @@
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="16">
         <f t="shared" si="1"/>
-        <v>271.56000000000006</v>
+        <v>276.56000000000006</v>
       </c>
       <c r="B187" s="16">
         <f t="shared" si="0"/>
@@ -4625,7 +4623,7 @@
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="16">
         <f t="shared" si="1"/>
-        <v>271.62000000000006</v>
+        <v>276.62000000000006</v>
       </c>
       <c r="B188" s="16">
         <f t="shared" si="0"/>
@@ -4636,7 +4634,7 @@
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="16">
         <f t="shared" si="1"/>
-        <v>271.68000000000006</v>
+        <v>276.68000000000006</v>
       </c>
       <c r="B189" s="16">
         <f t="shared" si="0"/>
@@ -4647,7 +4645,7 @@
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="16">
         <f t="shared" si="1"/>
-        <v>271.74000000000007</v>
+        <v>276.74000000000007</v>
       </c>
       <c r="B190" s="16">
         <f t="shared" si="0"/>
@@ -4658,7 +4656,7 @@
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="16">
         <f t="shared" si="1"/>
-        <v>271.80000000000007</v>
+        <v>276.80000000000007</v>
       </c>
       <c r="B191" s="16">
         <f t="shared" si="0"/>
@@ -4669,7 +4667,7 @@
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="16">
         <f t="shared" si="1"/>
-        <v>271.86000000000007</v>
+        <v>276.86000000000007</v>
       </c>
       <c r="B192" s="16">
         <f t="shared" si="0"/>
@@ -4680,7 +4678,7 @@
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="16">
         <f t="shared" si="1"/>
-        <v>271.92000000000007</v>
+        <v>276.92000000000007</v>
       </c>
       <c r="B193" s="16">
         <f t="shared" si="0"/>
@@ -4691,7 +4689,7 @@
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="16">
         <f t="shared" si="1"/>
-        <v>271.98000000000008</v>
+        <v>276.98000000000008</v>
       </c>
       <c r="B194" s="16">
         <f t="shared" si="0"/>
@@ -4702,7 +4700,7 @@
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="16">
         <f t="shared" si="1"/>
-        <v>272.04000000000008</v>
+        <v>277.04000000000008</v>
       </c>
       <c r="B195" s="16">
         <f t="shared" si="0"/>
@@ -4713,7 +4711,7 @@
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="16">
         <f t="shared" si="1"/>
-        <v>272.10000000000008</v>
+        <v>277.10000000000008</v>
       </c>
       <c r="B196" s="16">
         <f t="shared" si="0"/>
@@ -4724,7 +4722,7 @@
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="16">
         <f t="shared" si="1"/>
-        <v>272.16000000000008</v>
+        <v>277.16000000000008</v>
       </c>
       <c r="B197" s="16">
         <f t="shared" si="0"/>
@@ -4735,7 +4733,7 @@
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="16">
         <f t="shared" si="1"/>
-        <v>272.22000000000008</v>
+        <v>277.22000000000008</v>
       </c>
       <c r="B198" s="16">
         <f t="shared" si="0"/>
@@ -4746,7 +4744,7 @@
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="16">
         <f t="shared" si="1"/>
-        <v>272.28000000000009</v>
+        <v>277.28000000000009</v>
       </c>
       <c r="B199" s="16">
         <f t="shared" si="0"/>
@@ -4757,7 +4755,7 @@
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="16">
         <f t="shared" si="1"/>
-        <v>272.34000000000009</v>
+        <v>277.34000000000009</v>
       </c>
       <c r="B200" s="16">
         <f t="shared" si="0"/>
@@ -4768,7 +4766,7 @@
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="16">
         <f t="shared" si="1"/>
-        <v>272.40000000000009</v>
+        <v>277.40000000000009</v>
       </c>
       <c r="B201" s="16">
         <f t="shared" si="0"/>
@@ -4779,7 +4777,7 @@
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="16">
         <f t="shared" si="1"/>
-        <v>272.46000000000009</v>
+        <v>277.46000000000009</v>
       </c>
       <c r="B202" s="16">
         <f t="shared" si="0"/>
@@ -4790,7 +4788,7 @@
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="16">
         <f t="shared" si="1"/>
-        <v>272.5200000000001</v>
+        <v>277.5200000000001</v>
       </c>
       <c r="B203" s="16">
         <f t="shared" si="0"/>
@@ -4801,7 +4799,7 @@
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="16">
         <f t="shared" si="1"/>
-        <v>272.5800000000001</v>
+        <v>277.5800000000001</v>
       </c>
       <c r="B204" s="16">
         <f t="shared" si="0"/>
@@ -4812,7 +4810,7 @@
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="16">
         <f t="shared" si="1"/>
-        <v>272.6400000000001</v>
+        <v>277.6400000000001</v>
       </c>
       <c r="B205" s="16">
         <f t="shared" si="0"/>
@@ -4823,7 +4821,7 @@
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="16">
         <f t="shared" si="1"/>
-        <v>272.7000000000001</v>
+        <v>277.7000000000001</v>
       </c>
       <c r="B206" s="16">
         <f t="shared" si="0"/>
@@ -4834,7 +4832,7 @@
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="16">
         <f t="shared" si="1"/>
-        <v>272.7600000000001</v>
+        <v>277.7600000000001</v>
       </c>
       <c r="B207" s="16">
         <f t="shared" si="0"/>
@@ -4845,7 +4843,7 @@
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="16">
         <f t="shared" si="1"/>
-        <v>272.82000000000011</v>
+        <v>277.82000000000011</v>
       </c>
       <c r="B208" s="16">
         <f t="shared" si="0"/>
@@ -4856,7 +4854,7 @@
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="16">
         <f t="shared" si="1"/>
-        <v>272.88000000000011</v>
+        <v>277.88000000000011</v>
       </c>
       <c r="B209" s="16">
         <f t="shared" si="0"/>
@@ -4867,7 +4865,7 @@
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="16">
         <f t="shared" si="1"/>
-        <v>272.94000000000011</v>
+        <v>277.94000000000011</v>
       </c>
       <c r="B210" s="16">
         <f t="shared" si="0"/>
@@ -4878,7 +4876,7 @@
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="16">
         <f t="shared" si="1"/>
-        <v>273.00000000000011</v>
+        <v>278.00000000000011</v>
       </c>
       <c r="B211" s="16">
         <f t="shared" si="0"/>
@@ -4889,7 +4887,7 @@
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="16">
         <f t="shared" si="1"/>
-        <v>273.06000000000012</v>
+        <v>278.06000000000012</v>
       </c>
       <c r="B212" s="16">
         <f t="shared" si="0"/>
@@ -4900,7 +4898,7 @@
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="16">
         <f t="shared" si="1"/>
-        <v>273.12000000000012</v>
+        <v>278.12000000000012</v>
       </c>
       <c r="B213" s="16">
         <f t="shared" si="0"/>
@@ -4911,7 +4909,7 @@
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="16">
         <f t="shared" si="1"/>
-        <v>273.18000000000012</v>
+        <v>278.18000000000012</v>
       </c>
       <c r="B214" s="16">
         <f t="shared" si="0"/>
@@ -4922,7 +4920,7 @@
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="16">
         <f t="shared" si="1"/>
-        <v>273.24000000000012</v>
+        <v>278.24000000000012</v>
       </c>
       <c r="B215" s="16">
         <f t="shared" si="0"/>
@@ -4933,7 +4931,7 @@
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="16">
         <f t="shared" si="1"/>
-        <v>273.30000000000013</v>
+        <v>278.30000000000013</v>
       </c>
       <c r="B216" s="16">
         <f t="shared" si="0"/>
@@ -4944,7 +4942,7 @@
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="16">
         <f t="shared" si="1"/>
-        <v>273.36000000000013</v>
+        <v>278.36000000000013</v>
       </c>
       <c r="B217" s="16">
         <f t="shared" si="0"/>
@@ -4955,7 +4953,7 @@
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="16">
         <f t="shared" si="1"/>
-        <v>273.42000000000013</v>
+        <v>278.42000000000013</v>
       </c>
       <c r="B218" s="16">
         <f t="shared" si="0"/>
@@ -4966,7 +4964,7 @@
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="16">
         <f t="shared" si="1"/>
-        <v>273.48000000000013</v>
+        <v>278.48000000000013</v>
       </c>
       <c r="B219" s="16">
         <f t="shared" si="0"/>
@@ -4977,7 +4975,7 @@
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="16">
         <f t="shared" si="1"/>
-        <v>273.54000000000013</v>
+        <v>278.54000000000013</v>
       </c>
       <c r="B220" s="16">
         <f t="shared" si="0"/>
@@ -4988,7 +4986,7 @@
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="16">
         <f t="shared" si="1"/>
-        <v>273.60000000000014</v>
+        <v>278.60000000000014</v>
       </c>
       <c r="B221" s="16">
         <f t="shared" si="0"/>
@@ -4999,7 +4997,7 @@
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="16">
         <f t="shared" si="1"/>
-        <v>273.66000000000014</v>
+        <v>278.66000000000014</v>
       </c>
       <c r="B222" s="16">
         <f t="shared" si="0"/>
@@ -5010,7 +5008,7 @@
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="16">
         <f t="shared" si="1"/>
-        <v>273.72000000000014</v>
+        <v>278.72000000000014</v>
       </c>
       <c r="B223" s="16">
         <f t="shared" si="0"/>
@@ -5021,7 +5019,7 @@
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="16">
         <f t="shared" si="1"/>
-        <v>273.78000000000014</v>
+        <v>278.78000000000014</v>
       </c>
       <c r="B224" s="16">
         <f t="shared" si="0"/>
@@ -5032,7 +5030,7 @@
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="16">
         <f t="shared" si="1"/>
-        <v>273.84000000000015</v>
+        <v>278.84000000000015</v>
       </c>
       <c r="B225" s="16">
         <f t="shared" si="0"/>
@@ -5043,7 +5041,7 @@
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="16">
         <f t="shared" si="1"/>
-        <v>273.90000000000015</v>
+        <v>278.90000000000015</v>
       </c>
       <c r="B226" s="16">
         <f t="shared" ref="B226:B289" si="2">NORMDIST(A226, $C$3, $C$4, FALSE)</f>
@@ -5054,7 +5052,7 @@
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="16">
         <f t="shared" ref="A227:A290" si="3">A226+$C$161</f>
-        <v>273.96000000000015</v>
+        <v>278.96000000000015</v>
       </c>
       <c r="B227" s="16">
         <f t="shared" si="2"/>
@@ -5065,7 +5063,7 @@
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="16">
         <f t="shared" si="3"/>
-        <v>274.02000000000015</v>
+        <v>279.02000000000015</v>
       </c>
       <c r="B228" s="16">
         <f t="shared" si="2"/>
@@ -5076,7 +5074,7 @@
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="16">
         <f t="shared" si="3"/>
-        <v>274.08000000000015</v>
+        <v>279.08000000000015</v>
       </c>
       <c r="B229" s="16">
         <f t="shared" si="2"/>
@@ -5087,7 +5085,7 @@
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="16">
         <f t="shared" si="3"/>
-        <v>274.14000000000016</v>
+        <v>279.14000000000016</v>
       </c>
       <c r="B230" s="16">
         <f t="shared" si="2"/>
@@ -5098,7 +5096,7 @@
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="16">
         <f t="shared" si="3"/>
-        <v>274.20000000000016</v>
+        <v>279.20000000000016</v>
       </c>
       <c r="B231" s="16">
         <f t="shared" si="2"/>
@@ -5109,7 +5107,7 @@
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="16">
         <f t="shared" si="3"/>
-        <v>274.26000000000016</v>
+        <v>279.26000000000016</v>
       </c>
       <c r="B232" s="16">
         <f t="shared" si="2"/>
@@ -5120,7 +5118,7 @@
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="16">
         <f t="shared" si="3"/>
-        <v>274.32000000000016</v>
+        <v>279.32000000000016</v>
       </c>
       <c r="B233" s="16">
         <f t="shared" si="2"/>
@@ -5131,7 +5129,7 @@
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="16">
         <f t="shared" si="3"/>
-        <v>274.38000000000017</v>
+        <v>279.38000000000017</v>
       </c>
       <c r="B234" s="16">
         <f t="shared" si="2"/>
@@ -5142,7 +5140,7 @@
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="16">
         <f t="shared" si="3"/>
-        <v>274.44000000000017</v>
+        <v>279.44000000000017</v>
       </c>
       <c r="B235" s="16">
         <f t="shared" si="2"/>
@@ -5153,7 +5151,7 @@
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="16">
         <f t="shared" si="3"/>
-        <v>274.50000000000017</v>
+        <v>279.50000000000017</v>
       </c>
       <c r="B236" s="16">
         <f t="shared" si="2"/>
@@ -5164,7 +5162,7 @@
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="16">
         <f t="shared" si="3"/>
-        <v>274.56000000000017</v>
+        <v>279.56000000000017</v>
       </c>
       <c r="B237" s="16">
         <f t="shared" si="2"/>
@@ -5175,7 +5173,7 @@
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="16">
         <f t="shared" si="3"/>
-        <v>274.62000000000018</v>
+        <v>279.62000000000018</v>
       </c>
       <c r="B238" s="16">
         <f t="shared" si="2"/>
@@ -5186,7 +5184,7 @@
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="16">
         <f t="shared" si="3"/>
-        <v>274.68000000000018</v>
+        <v>279.68000000000018</v>
       </c>
       <c r="B239" s="16">
         <f t="shared" si="2"/>
@@ -5197,7 +5195,7 @@
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="16">
         <f t="shared" si="3"/>
-        <v>274.74000000000018</v>
+        <v>279.74000000000018</v>
       </c>
       <c r="B240" s="16">
         <f t="shared" si="2"/>
@@ -5208,7 +5206,7 @@
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="16">
         <f t="shared" si="3"/>
-        <v>274.80000000000018</v>
+        <v>279.80000000000018</v>
       </c>
       <c r="B241" s="16">
         <f t="shared" si="2"/>
@@ -5219,7 +5217,7 @@
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="16">
         <f t="shared" si="3"/>
-        <v>274.86000000000018</v>
+        <v>279.86000000000018</v>
       </c>
       <c r="B242" s="16">
         <f t="shared" si="2"/>
@@ -5230,7 +5228,7 @@
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="16">
         <f t="shared" si="3"/>
-        <v>274.92000000000019</v>
+        <v>279.92000000000019</v>
       </c>
       <c r="B243" s="16">
         <f t="shared" si="2"/>
@@ -5241,7 +5239,7 @@
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="16">
         <f t="shared" si="3"/>
-        <v>274.98000000000019</v>
+        <v>279.98000000000019</v>
       </c>
       <c r="B244" s="16">
         <f t="shared" si="2"/>
@@ -5252,7 +5250,7 @@
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="16">
         <f t="shared" si="3"/>
-        <v>275.04000000000019</v>
+        <v>280.04000000000019</v>
       </c>
       <c r="B245" s="16">
         <f t="shared" si="2"/>
@@ -5263,7 +5261,7 @@
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="16">
         <f t="shared" si="3"/>
-        <v>275.10000000000019</v>
+        <v>280.10000000000019</v>
       </c>
       <c r="B246" s="16">
         <f t="shared" si="2"/>
@@ -5274,7 +5272,7 @@
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="16">
         <f t="shared" si="3"/>
-        <v>275.1600000000002</v>
+        <v>280.1600000000002</v>
       </c>
       <c r="B247" s="16">
         <f t="shared" si="2"/>
@@ -5285,7 +5283,7 @@
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="16">
         <f t="shared" si="3"/>
-        <v>275.2200000000002</v>
+        <v>280.2200000000002</v>
       </c>
       <c r="B248" s="16">
         <f t="shared" si="2"/>
@@ -5296,7 +5294,7 @@
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="16">
         <f t="shared" si="3"/>
-        <v>275.2800000000002</v>
+        <v>280.2800000000002</v>
       </c>
       <c r="B249" s="16">
         <f t="shared" si="2"/>
@@ -5307,7 +5305,7 @@
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="16">
         <f t="shared" si="3"/>
-        <v>275.3400000000002</v>
+        <v>280.3400000000002</v>
       </c>
       <c r="B250" s="16">
         <f t="shared" si="2"/>
@@ -5318,7 +5316,7 @@
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="16">
         <f t="shared" si="3"/>
-        <v>275.4000000000002</v>
+        <v>280.4000000000002</v>
       </c>
       <c r="B251" s="16">
         <f t="shared" si="2"/>
@@ -5329,7 +5327,7 @@
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="16">
         <f t="shared" si="3"/>
-        <v>275.46000000000021</v>
+        <v>280.46000000000021</v>
       </c>
       <c r="B252" s="16">
         <f t="shared" si="2"/>
@@ -5340,7 +5338,7 @@
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="16">
         <f t="shared" si="3"/>
-        <v>275.52000000000021</v>
+        <v>280.52000000000021</v>
       </c>
       <c r="B253" s="16">
         <f t="shared" si="2"/>
@@ -5351,7 +5349,7 @@
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="16">
         <f t="shared" si="3"/>
-        <v>275.58000000000021</v>
+        <v>280.58000000000021</v>
       </c>
       <c r="B254" s="16">
         <f t="shared" si="2"/>
@@ -5362,7 +5360,7 @@
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="16">
         <f t="shared" si="3"/>
-        <v>275.64000000000021</v>
+        <v>280.64000000000021</v>
       </c>
       <c r="B255" s="16">
         <f t="shared" si="2"/>
@@ -5373,7 +5371,7 @@
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="16">
         <f t="shared" si="3"/>
-        <v>275.70000000000022</v>
+        <v>280.70000000000022</v>
       </c>
       <c r="B256" s="16">
         <f t="shared" si="2"/>
@@ -5384,7 +5382,7 @@
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="16">
         <f t="shared" si="3"/>
-        <v>275.76000000000022</v>
+        <v>280.76000000000022</v>
       </c>
       <c r="B257" s="16">
         <f t="shared" si="2"/>
@@ -5395,7 +5393,7 @@
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="16">
         <f t="shared" si="3"/>
-        <v>275.82000000000022</v>
+        <v>280.82000000000022</v>
       </c>
       <c r="B258" s="16">
         <f t="shared" si="2"/>
@@ -5406,7 +5404,7 @@
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="16">
         <f t="shared" si="3"/>
-        <v>275.88000000000022</v>
+        <v>280.88000000000022</v>
       </c>
       <c r="B259" s="16">
         <f t="shared" si="2"/>
@@ -5417,7 +5415,7 @@
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="16">
         <f t="shared" si="3"/>
-        <v>275.94000000000023</v>
+        <v>280.94000000000023</v>
       </c>
       <c r="B260" s="16">
         <f t="shared" si="2"/>
@@ -5428,7 +5426,7 @@
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="16">
         <f t="shared" si="3"/>
-        <v>276.00000000000023</v>
+        <v>281.00000000000023</v>
       </c>
       <c r="B261" s="16">
         <f t="shared" si="2"/>
@@ -5439,7 +5437,7 @@
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="16">
         <f t="shared" si="3"/>
-        <v>276.06000000000023</v>
+        <v>281.06000000000023</v>
       </c>
       <c r="B262" s="16">
         <f t="shared" si="2"/>
@@ -5450,7 +5448,7 @@
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="16">
         <f t="shared" si="3"/>
-        <v>276.12000000000023</v>
+        <v>281.12000000000023</v>
       </c>
       <c r="B263" s="16">
         <f t="shared" si="2"/>
@@ -5461,7 +5459,7 @@
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="16">
         <f t="shared" si="3"/>
-        <v>276.18000000000023</v>
+        <v>281.18000000000023</v>
       </c>
       <c r="B264" s="16">
         <f t="shared" si="2"/>
@@ -5472,7 +5470,7 @@
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="16">
         <f t="shared" si="3"/>
-        <v>276.24000000000024</v>
+        <v>281.24000000000024</v>
       </c>
       <c r="B265" s="16">
         <f t="shared" si="2"/>
@@ -5483,7 +5481,7 @@
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="16">
         <f t="shared" si="3"/>
-        <v>276.30000000000024</v>
+        <v>281.30000000000024</v>
       </c>
       <c r="B266" s="16">
         <f t="shared" si="2"/>
@@ -5494,7 +5492,7 @@
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="16">
         <f t="shared" si="3"/>
-        <v>276.36000000000024</v>
+        <v>281.36000000000024</v>
       </c>
       <c r="B267" s="16">
         <f t="shared" si="2"/>
@@ -5505,7 +5503,7 @@
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="16">
         <f t="shared" si="3"/>
-        <v>276.42000000000024</v>
+        <v>281.42000000000024</v>
       </c>
       <c r="B268" s="16">
         <f t="shared" si="2"/>
@@ -5516,7 +5514,7 @@
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="16">
         <f t="shared" si="3"/>
-        <v>276.48000000000025</v>
+        <v>281.48000000000025</v>
       </c>
       <c r="B269" s="16">
         <f t="shared" si="2"/>
@@ -5527,7 +5525,7 @@
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="16">
         <f t="shared" si="3"/>
-        <v>276.54000000000025</v>
+        <v>281.54000000000025</v>
       </c>
       <c r="B270" s="16">
         <f t="shared" si="2"/>
@@ -5538,7 +5536,7 @@
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="16">
         <f t="shared" si="3"/>
-        <v>276.60000000000025</v>
+        <v>281.60000000000025</v>
       </c>
       <c r="B271" s="16">
         <f t="shared" si="2"/>
@@ -5549,7 +5547,7 @@
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="16">
         <f t="shared" si="3"/>
-        <v>276.66000000000025</v>
+        <v>281.66000000000025</v>
       </c>
       <c r="B272" s="16">
         <f t="shared" si="2"/>
@@ -5560,7 +5558,7 @@
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="16">
         <f t="shared" si="3"/>
-        <v>276.72000000000025</v>
+        <v>281.72000000000025</v>
       </c>
       <c r="B273" s="16">
         <f t="shared" si="2"/>
@@ -5571,7 +5569,7 @@
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="16">
         <f t="shared" si="3"/>
-        <v>276.78000000000026</v>
+        <v>281.78000000000026</v>
       </c>
       <c r="B274" s="16">
         <f t="shared" si="2"/>
@@ -5582,7 +5580,7 @@
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="16">
         <f t="shared" si="3"/>
-        <v>276.84000000000026</v>
+        <v>281.84000000000026</v>
       </c>
       <c r="B275" s="16">
         <f t="shared" si="2"/>
@@ -5593,7 +5591,7 @@
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="16">
         <f t="shared" si="3"/>
-        <v>276.90000000000026</v>
+        <v>281.90000000000026</v>
       </c>
       <c r="B276" s="16">
         <f t="shared" si="2"/>
@@ -5604,7 +5602,7 @@
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="16">
         <f t="shared" si="3"/>
-        <v>276.96000000000026</v>
+        <v>281.96000000000026</v>
       </c>
       <c r="B277" s="16">
         <f t="shared" si="2"/>
@@ -5615,7 +5613,7 @@
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="16">
         <f t="shared" si="3"/>
-        <v>277.02000000000027</v>
+        <v>282.02000000000027</v>
       </c>
       <c r="B278" s="16">
         <f t="shared" si="2"/>
@@ -5626,7 +5624,7 @@
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="16">
         <f t="shared" si="3"/>
-        <v>277.08000000000027</v>
+        <v>282.08000000000027</v>
       </c>
       <c r="B279" s="16">
         <f t="shared" si="2"/>
@@ -5637,7 +5635,7 @@
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="16">
         <f t="shared" si="3"/>
-        <v>277.14000000000027</v>
+        <v>282.14000000000027</v>
       </c>
       <c r="B280" s="16">
         <f t="shared" si="2"/>
@@ -5648,7 +5646,7 @@
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="16">
         <f t="shared" si="3"/>
-        <v>277.20000000000027</v>
+        <v>282.20000000000027</v>
       </c>
       <c r="B281" s="16">
         <f t="shared" si="2"/>
@@ -5659,7 +5657,7 @@
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="16">
         <f t="shared" si="3"/>
-        <v>277.26000000000028</v>
+        <v>282.26000000000028</v>
       </c>
       <c r="B282" s="16">
         <f t="shared" si="2"/>
@@ -5670,7 +5668,7 @@
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="16">
         <f t="shared" si="3"/>
-        <v>277.32000000000028</v>
+        <v>282.32000000000028</v>
       </c>
       <c r="B283" s="16">
         <f t="shared" si="2"/>
@@ -5681,7 +5679,7 @@
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="16">
         <f t="shared" si="3"/>
-        <v>277.38000000000028</v>
+        <v>282.38000000000028</v>
       </c>
       <c r="B284" s="16">
         <f t="shared" si="2"/>
@@ -5692,7 +5690,7 @@
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="16">
         <f t="shared" si="3"/>
-        <v>277.44000000000028</v>
+        <v>282.44000000000028</v>
       </c>
       <c r="B285" s="16">
         <f t="shared" si="2"/>
@@ -5703,7 +5701,7 @@
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="16">
         <f t="shared" si="3"/>
-        <v>277.50000000000028</v>
+        <v>282.50000000000028</v>
       </c>
       <c r="B286" s="16">
         <f t="shared" si="2"/>
@@ -5714,7 +5712,7 @@
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="16">
         <f t="shared" si="3"/>
-        <v>277.56000000000029</v>
+        <v>282.56000000000029</v>
       </c>
       <c r="B287" s="16">
         <f t="shared" si="2"/>
@@ -5725,7 +5723,7 @@
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="16">
         <f t="shared" si="3"/>
-        <v>277.62000000000029</v>
+        <v>282.62000000000029</v>
       </c>
       <c r="B288" s="16">
         <f t="shared" si="2"/>
@@ -5736,7 +5734,7 @@
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="16">
         <f t="shared" si="3"/>
-        <v>277.68000000000029</v>
+        <v>282.68000000000029</v>
       </c>
       <c r="B289" s="16">
         <f t="shared" si="2"/>
@@ -5747,7 +5745,7 @@
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="16">
         <f t="shared" si="3"/>
-        <v>277.74000000000029</v>
+        <v>282.74000000000029</v>
       </c>
       <c r="B290" s="16">
         <f t="shared" ref="B290:B353" si="4">NORMDIST(A290, $C$3, $C$4, FALSE)</f>
@@ -5758,7 +5756,7 @@
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="16">
         <f t="shared" ref="A291:A354" si="5">A290+$C$161</f>
-        <v>277.8000000000003</v>
+        <v>282.8000000000003</v>
       </c>
       <c r="B291" s="16">
         <f t="shared" si="4"/>
@@ -5769,7 +5767,7 @@
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="16">
         <f t="shared" si="5"/>
-        <v>277.8600000000003</v>
+        <v>282.8600000000003</v>
       </c>
       <c r="B292" s="16">
         <f t="shared" si="4"/>
@@ -5780,7 +5778,7 @@
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="16">
         <f t="shared" si="5"/>
-        <v>277.9200000000003</v>
+        <v>282.9200000000003</v>
       </c>
       <c r="B293" s="16">
         <f t="shared" si="4"/>
@@ -5791,7 +5789,7 @@
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="16">
         <f t="shared" si="5"/>
-        <v>277.9800000000003</v>
+        <v>282.9800000000003</v>
       </c>
       <c r="B294" s="16">
         <f t="shared" si="4"/>
@@ -5802,7 +5800,7 @@
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="16">
         <f t="shared" si="5"/>
-        <v>278.0400000000003</v>
+        <v>283.0400000000003</v>
       </c>
       <c r="B295" s="16">
         <f t="shared" si="4"/>
@@ -5813,7 +5811,7 @@
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="16">
         <f t="shared" si="5"/>
-        <v>278.10000000000031</v>
+        <v>283.10000000000031</v>
       </c>
       <c r="B296" s="16">
         <f t="shared" si="4"/>
@@ -5824,7 +5822,7 @@
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="16">
         <f t="shared" si="5"/>
-        <v>278.16000000000031</v>
+        <v>283.16000000000031</v>
       </c>
       <c r="B297" s="16">
         <f t="shared" si="4"/>
@@ -5835,7 +5833,7 @@
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="16">
         <f t="shared" si="5"/>
-        <v>278.22000000000031</v>
+        <v>283.22000000000031</v>
       </c>
       <c r="B298" s="16">
         <f t="shared" si="4"/>
@@ -5846,7 +5844,7 @@
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="16">
         <f t="shared" si="5"/>
-        <v>278.28000000000031</v>
+        <v>283.28000000000031</v>
       </c>
       <c r="B299" s="16">
         <f t="shared" si="4"/>
@@ -5857,7 +5855,7 @@
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="16">
         <f t="shared" si="5"/>
-        <v>278.34000000000032</v>
+        <v>283.34000000000032</v>
       </c>
       <c r="B300" s="16">
         <f t="shared" si="4"/>
@@ -5868,7 +5866,7 @@
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="16">
         <f t="shared" si="5"/>
-        <v>278.40000000000032</v>
+        <v>283.40000000000032</v>
       </c>
       <c r="B301" s="16">
         <f t="shared" si="4"/>
@@ -5879,7 +5877,7 @@
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="16">
         <f t="shared" si="5"/>
-        <v>278.46000000000032</v>
+        <v>283.46000000000032</v>
       </c>
       <c r="B302" s="16">
         <f t="shared" si="4"/>
@@ -5890,7 +5888,7 @@
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="16">
         <f t="shared" si="5"/>
-        <v>278.52000000000032</v>
+        <v>283.52000000000032</v>
       </c>
       <c r="B303" s="16">
         <f t="shared" si="4"/>
@@ -5901,7 +5899,7 @@
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="16">
         <f t="shared" si="5"/>
-        <v>278.58000000000033</v>
+        <v>283.58000000000033</v>
       </c>
       <c r="B304" s="16">
         <f t="shared" si="4"/>
@@ -5912,7 +5910,7 @@
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="16">
         <f t="shared" si="5"/>
-        <v>278.64000000000033</v>
+        <v>283.64000000000033</v>
       </c>
       <c r="B305" s="16">
         <f t="shared" si="4"/>
@@ -5923,7 +5921,7 @@
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="16">
         <f t="shared" si="5"/>
-        <v>278.70000000000033</v>
+        <v>283.70000000000033</v>
       </c>
       <c r="B306" s="16">
         <f t="shared" si="4"/>
@@ -5934,7 +5932,7 @@
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="16">
         <f t="shared" si="5"/>
-        <v>278.76000000000033</v>
+        <v>283.76000000000033</v>
       </c>
       <c r="B307" s="16">
         <f t="shared" si="4"/>
@@ -5945,7 +5943,7 @@
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="16">
         <f t="shared" si="5"/>
-        <v>278.82000000000033</v>
+        <v>283.82000000000033</v>
       </c>
       <c r="B308" s="16">
         <f t="shared" si="4"/>
@@ -5956,7 +5954,7 @@
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="16">
         <f t="shared" si="5"/>
-        <v>278.88000000000034</v>
+        <v>283.88000000000034</v>
       </c>
       <c r="B309" s="16">
         <f t="shared" si="4"/>
@@ -5967,7 +5965,7 @@
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="16">
         <f t="shared" si="5"/>
-        <v>278.94000000000034</v>
+        <v>283.94000000000034</v>
       </c>
       <c r="B310" s="16">
         <f t="shared" si="4"/>
@@ -5978,7 +5976,7 @@
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="16">
         <f t="shared" si="5"/>
-        <v>279.00000000000034</v>
+        <v>284.00000000000034</v>
       </c>
       <c r="B311" s="16">
         <f t="shared" si="4"/>
@@ -5989,7 +5987,7 @@
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="16">
         <f t="shared" si="5"/>
-        <v>279.06000000000034</v>
+        <v>284.06000000000034</v>
       </c>
       <c r="B312" s="16">
         <f t="shared" si="4"/>
@@ -6000,7 +5998,7 @@
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="16">
         <f t="shared" si="5"/>
-        <v>279.12000000000035</v>
+        <v>284.12000000000035</v>
       </c>
       <c r="B313" s="16">
         <f t="shared" si="4"/>
@@ -6011,7 +6009,7 @@
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="16">
         <f t="shared" si="5"/>
-        <v>279.18000000000035</v>
+        <v>284.18000000000035</v>
       </c>
       <c r="B314" s="16">
         <f t="shared" si="4"/>
@@ -6022,7 +6020,7 @@
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="16">
         <f t="shared" si="5"/>
-        <v>279.24000000000035</v>
+        <v>284.24000000000035</v>
       </c>
       <c r="B315" s="16">
         <f t="shared" si="4"/>
@@ -6033,7 +6031,7 @@
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="16">
         <f t="shared" si="5"/>
-        <v>279.30000000000035</v>
+        <v>284.30000000000035</v>
       </c>
       <c r="B316" s="16">
         <f t="shared" si="4"/>
@@ -6044,7 +6042,7 @@
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="16">
         <f t="shared" si="5"/>
-        <v>279.36000000000035</v>
+        <v>284.36000000000035</v>
       </c>
       <c r="B317" s="16">
         <f t="shared" si="4"/>
@@ -6055,7 +6053,7 @@
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="16">
         <f t="shared" si="5"/>
-        <v>279.42000000000036</v>
+        <v>284.42000000000036</v>
       </c>
       <c r="B318" s="16">
         <f t="shared" si="4"/>
@@ -6066,7 +6064,7 @@
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="16">
         <f t="shared" si="5"/>
-        <v>279.48000000000036</v>
+        <v>284.48000000000036</v>
       </c>
       <c r="B319" s="16">
         <f t="shared" si="4"/>
@@ -6077,7 +6075,7 @@
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="16">
         <f t="shared" si="5"/>
-        <v>279.54000000000036</v>
+        <v>284.54000000000036</v>
       </c>
       <c r="B320" s="16">
         <f t="shared" si="4"/>
@@ -6088,7 +6086,7 @@
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="16">
         <f t="shared" si="5"/>
-        <v>279.60000000000036</v>
+        <v>284.60000000000036</v>
       </c>
       <c r="B321" s="16">
         <f t="shared" si="4"/>
@@ -6099,7 +6097,7 @@
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="16">
         <f t="shared" si="5"/>
-        <v>279.66000000000037</v>
+        <v>284.66000000000037</v>
       </c>
       <c r="B322" s="16">
         <f t="shared" si="4"/>
@@ -6110,7 +6108,7 @@
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="16">
         <f t="shared" si="5"/>
-        <v>279.72000000000037</v>
+        <v>284.72000000000037</v>
       </c>
       <c r="B323" s="16">
         <f t="shared" si="4"/>
@@ -6121,7 +6119,7 @@
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="16">
         <f t="shared" si="5"/>
-        <v>279.78000000000037</v>
+        <v>284.78000000000037</v>
       </c>
       <c r="B324" s="16">
         <f t="shared" si="4"/>
@@ -6132,7 +6130,7 @@
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="16">
         <f t="shared" si="5"/>
-        <v>279.84000000000037</v>
+        <v>284.84000000000037</v>
       </c>
       <c r="B325" s="16">
         <f t="shared" si="4"/>
@@ -6143,7 +6141,7 @@
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="16">
         <f t="shared" si="5"/>
-        <v>279.90000000000038</v>
+        <v>284.90000000000038</v>
       </c>
       <c r="B326" s="16">
         <f t="shared" si="4"/>
@@ -6154,7 +6152,7 @@
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="16">
         <f t="shared" si="5"/>
-        <v>279.96000000000038</v>
+        <v>284.96000000000038</v>
       </c>
       <c r="B327" s="16">
         <f t="shared" si="4"/>
@@ -6165,7 +6163,7 @@
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="16">
         <f t="shared" si="5"/>
-        <v>280.02000000000038</v>
+        <v>285.02000000000038</v>
       </c>
       <c r="B328" s="16">
         <f t="shared" si="4"/>
@@ -6176,7 +6174,7 @@
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="16">
         <f t="shared" si="5"/>
-        <v>280.08000000000038</v>
+        <v>285.08000000000038</v>
       </c>
       <c r="B329" s="16">
         <f t="shared" si="4"/>
@@ -6187,7 +6185,7 @@
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="16">
         <f t="shared" si="5"/>
-        <v>280.14000000000038</v>
+        <v>285.14000000000038</v>
       </c>
       <c r="B330" s="16">
         <f t="shared" si="4"/>
@@ -6198,7 +6196,7 @@
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="16">
         <f t="shared" si="5"/>
-        <v>280.20000000000039</v>
+        <v>285.20000000000039</v>
       </c>
       <c r="B331" s="16">
         <f t="shared" si="4"/>
@@ -6209,7 +6207,7 @@
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="16">
         <f t="shared" si="5"/>
-        <v>280.26000000000039</v>
+        <v>285.26000000000039</v>
       </c>
       <c r="B332" s="16">
         <f t="shared" si="4"/>
@@ -6220,7 +6218,7 @@
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="16">
         <f t="shared" si="5"/>
-        <v>280.32000000000039</v>
+        <v>285.32000000000039</v>
       </c>
       <c r="B333" s="16">
         <f t="shared" si="4"/>
@@ -6231,7 +6229,7 @@
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="16">
         <f t="shared" si="5"/>
-        <v>280.38000000000039</v>
+        <v>285.38000000000039</v>
       </c>
       <c r="B334" s="16">
         <f t="shared" si="4"/>
@@ -6242,7 +6240,7 @@
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="16">
         <f t="shared" si="5"/>
-        <v>280.4400000000004</v>
+        <v>285.4400000000004</v>
       </c>
       <c r="B335" s="16">
         <f t="shared" si="4"/>
@@ -6253,7 +6251,7 @@
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="16">
         <f t="shared" si="5"/>
-        <v>280.5000000000004</v>
+        <v>285.5000000000004</v>
       </c>
       <c r="B336" s="16">
         <f t="shared" si="4"/>
@@ -6264,7 +6262,7 @@
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="16">
         <f t="shared" si="5"/>
-        <v>280.5600000000004</v>
+        <v>285.5600000000004</v>
       </c>
       <c r="B337" s="16">
         <f t="shared" si="4"/>
@@ -6275,7 +6273,7 @@
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="16">
         <f t="shared" si="5"/>
-        <v>280.6200000000004</v>
+        <v>285.6200000000004</v>
       </c>
       <c r="B338" s="16">
         <f t="shared" si="4"/>
@@ -6286,7 +6284,7 @@
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="16">
         <f t="shared" si="5"/>
-        <v>280.6800000000004</v>
+        <v>285.6800000000004</v>
       </c>
       <c r="B339" s="16">
         <f t="shared" si="4"/>
@@ -6297,7 +6295,7 @@
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="16">
         <f t="shared" si="5"/>
-        <v>280.74000000000041</v>
+        <v>285.74000000000041</v>
       </c>
       <c r="B340" s="16">
         <f t="shared" si="4"/>
@@ -6308,7 +6306,7 @@
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="16">
         <f t="shared" si="5"/>
-        <v>280.80000000000041</v>
+        <v>285.80000000000041</v>
       </c>
       <c r="B341" s="16"/>
       <c r="C341" s="16"/>
@@ -6316,7 +6314,7 @@
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="16">
         <f t="shared" si="5"/>
-        <v>280.86000000000041</v>
+        <v>285.86000000000041</v>
       </c>
       <c r="B342" s="16">
         <f t="shared" si="4"/>
@@ -6327,7 +6325,7 @@
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="16">
         <f t="shared" si="5"/>
-        <v>280.92000000000041</v>
+        <v>285.92000000000041</v>
       </c>
       <c r="B343" s="16">
         <f t="shared" si="4"/>
@@ -6338,7 +6336,7 @@
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="16">
         <f t="shared" si="5"/>
-        <v>280.98000000000042</v>
+        <v>285.98000000000042</v>
       </c>
       <c r="B344" s="16">
         <f t="shared" si="4"/>
@@ -6349,7 +6347,7 @@
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="16">
         <f t="shared" si="5"/>
-        <v>281.04000000000042</v>
+        <v>286.04000000000042</v>
       </c>
       <c r="B345" s="16">
         <f t="shared" si="4"/>
@@ -6360,7 +6358,7 @@
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="16">
         <f t="shared" si="5"/>
-        <v>281.10000000000042</v>
+        <v>286.10000000000042</v>
       </c>
       <c r="B346" s="16">
         <f t="shared" si="4"/>
@@ -6371,7 +6369,7 @@
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="16">
         <f t="shared" si="5"/>
-        <v>281.16000000000042</v>
+        <v>286.16000000000042</v>
       </c>
       <c r="B347" s="16">
         <f t="shared" si="4"/>
@@ -6382,7 +6380,7 @@
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="16">
         <f t="shared" si="5"/>
-        <v>281.22000000000043</v>
+        <v>286.22000000000043</v>
       </c>
       <c r="B348" s="16">
         <f t="shared" si="4"/>
@@ -6393,7 +6391,7 @@
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="16">
         <f t="shared" si="5"/>
-        <v>281.28000000000043</v>
+        <v>286.28000000000043</v>
       </c>
       <c r="B349" s="16">
         <f t="shared" si="4"/>
@@ -6404,7 +6402,7 @@
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="16">
         <f t="shared" si="5"/>
-        <v>281.34000000000043</v>
+        <v>286.34000000000043</v>
       </c>
       <c r="B350" s="16">
         <f t="shared" si="4"/>
@@ -6415,7 +6413,7 @@
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="16">
         <f t="shared" si="5"/>
-        <v>281.40000000000043</v>
+        <v>286.40000000000043</v>
       </c>
       <c r="B351" s="16">
         <f t="shared" si="4"/>
@@ -6426,7 +6424,7 @@
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="16">
         <f t="shared" si="5"/>
-        <v>281.46000000000043</v>
+        <v>286.46000000000043</v>
       </c>
       <c r="B352" s="16">
         <f t="shared" si="4"/>
@@ -6437,7 +6435,7 @@
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="16">
         <f t="shared" si="5"/>
-        <v>281.52000000000044</v>
+        <v>286.52000000000044</v>
       </c>
       <c r="B353" s="16">
         <f t="shared" si="4"/>
@@ -6448,7 +6446,7 @@
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="16">
         <f t="shared" si="5"/>
-        <v>281.58000000000044</v>
+        <v>286.58000000000044</v>
       </c>
       <c r="B354" s="16">
         <f t="shared" ref="B354:B417" si="6">NORMDIST(A354, $C$3, $C$4, FALSE)</f>
@@ -6459,7 +6457,7 @@
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="16">
         <f t="shared" ref="A355:A418" si="7">A354+$C$161</f>
-        <v>281.64000000000044</v>
+        <v>286.64000000000044</v>
       </c>
       <c r="B355" s="16">
         <f t="shared" si="6"/>
@@ -6470,7 +6468,7 @@
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="16">
         <f t="shared" si="7"/>
-        <v>281.70000000000044</v>
+        <v>286.70000000000044</v>
       </c>
       <c r="B356" s="16">
         <f t="shared" si="6"/>
@@ -6481,7 +6479,7 @@
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="16">
         <f t="shared" si="7"/>
-        <v>281.76000000000045</v>
+        <v>286.76000000000045</v>
       </c>
       <c r="B357" s="16">
         <f t="shared" si="6"/>
@@ -6492,7 +6490,7 @@
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="16">
         <f t="shared" si="7"/>
-        <v>281.82000000000045</v>
+        <v>286.82000000000045</v>
       </c>
       <c r="B358" s="16">
         <f t="shared" si="6"/>
@@ -6503,7 +6501,7 @@
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="16">
         <f t="shared" si="7"/>
-        <v>281.88000000000045</v>
+        <v>286.88000000000045</v>
       </c>
       <c r="B359" s="16">
         <f t="shared" si="6"/>
@@ -6514,7 +6512,7 @@
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="16">
         <f t="shared" si="7"/>
-        <v>281.94000000000045</v>
+        <v>286.94000000000045</v>
       </c>
       <c r="B360" s="16">
         <f t="shared" si="6"/>
@@ -6525,7 +6523,7 @@
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="16">
         <f t="shared" si="7"/>
-        <v>282.00000000000045</v>
+        <v>287.00000000000045</v>
       </c>
       <c r="B361" s="16">
         <f t="shared" si="6"/>
@@ -6536,7 +6534,7 @@
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="16">
         <f t="shared" si="7"/>
-        <v>282.06000000000046</v>
+        <v>287.06000000000046</v>
       </c>
       <c r="B362" s="16">
         <f t="shared" si="6"/>
@@ -6547,7 +6545,7 @@
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="16">
         <f t="shared" si="7"/>
-        <v>282.12000000000046</v>
+        <v>287.12000000000046</v>
       </c>
       <c r="B363" s="16">
         <f t="shared" si="6"/>
@@ -6558,7 +6556,7 @@
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="16">
         <f t="shared" si="7"/>
-        <v>282.18000000000046</v>
+        <v>287.18000000000046</v>
       </c>
       <c r="B364" s="16">
         <f t="shared" si="6"/>
@@ -6569,7 +6567,7 @@
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="16">
         <f t="shared" si="7"/>
-        <v>282.24000000000046</v>
+        <v>287.24000000000046</v>
       </c>
       <c r="B365" s="16">
         <f t="shared" si="6"/>
@@ -6580,7 +6578,7 @@
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="16">
         <f t="shared" si="7"/>
-        <v>282.30000000000047</v>
+        <v>287.30000000000047</v>
       </c>
       <c r="B366" s="16">
         <f t="shared" si="6"/>
@@ -6591,7 +6589,7 @@
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="16">
         <f t="shared" si="7"/>
-        <v>282.36000000000047</v>
+        <v>287.36000000000047</v>
       </c>
       <c r="B367" s="16">
         <f t="shared" si="6"/>
@@ -6602,7 +6600,7 @@
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="16">
         <f t="shared" si="7"/>
-        <v>282.42000000000047</v>
+        <v>287.42000000000047</v>
       </c>
       <c r="B368" s="16">
         <f t="shared" si="6"/>
@@ -6613,7 +6611,7 @@
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="16">
         <f t="shared" si="7"/>
-        <v>282.48000000000047</v>
+        <v>287.48000000000047</v>
       </c>
       <c r="B369" s="16">
         <f t="shared" si="6"/>
@@ -6624,7 +6622,7 @@
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="16">
         <f t="shared" si="7"/>
-        <v>282.54000000000048</v>
+        <v>287.54000000000048</v>
       </c>
       <c r="B370" s="16">
         <f t="shared" si="6"/>
@@ -6635,7 +6633,7 @@
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="16">
         <f t="shared" si="7"/>
-        <v>282.60000000000048</v>
+        <v>287.60000000000048</v>
       </c>
       <c r="B371" s="16">
         <f t="shared" si="6"/>
@@ -6646,7 +6644,7 @@
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="16">
         <f t="shared" si="7"/>
-        <v>282.66000000000048</v>
+        <v>287.66000000000048</v>
       </c>
       <c r="B372" s="16">
         <f t="shared" si="6"/>
@@ -6657,7 +6655,7 @@
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="16">
         <f t="shared" si="7"/>
-        <v>282.72000000000048</v>
+        <v>287.72000000000048</v>
       </c>
       <c r="B373" s="16">
         <f t="shared" si="6"/>
@@ -6668,7 +6666,7 @@
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="16">
         <f t="shared" si="7"/>
-        <v>282.78000000000048</v>
+        <v>287.78000000000048</v>
       </c>
       <c r="B374" s="16">
         <f t="shared" si="6"/>
@@ -6679,7 +6677,7 @@
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="16">
         <f t="shared" si="7"/>
-        <v>282.84000000000049</v>
+        <v>287.84000000000049</v>
       </c>
       <c r="B375" s="16">
         <f t="shared" si="6"/>
@@ -6690,7 +6688,7 @@
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="16">
         <f t="shared" si="7"/>
-        <v>282.90000000000049</v>
+        <v>287.90000000000049</v>
       </c>
       <c r="B376" s="16">
         <f t="shared" si="6"/>
@@ -6701,7 +6699,7 @@
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="16">
         <f t="shared" si="7"/>
-        <v>282.96000000000049</v>
+        <v>287.96000000000049</v>
       </c>
       <c r="B377" s="16">
         <f t="shared" si="6"/>
@@ -6712,7 +6710,7 @@
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="16">
         <f t="shared" si="7"/>
-        <v>283.02000000000049</v>
+        <v>288.02000000000049</v>
       </c>
       <c r="B378" s="16">
         <f t="shared" si="6"/>
@@ -6723,7 +6721,7 @@
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="16">
         <f t="shared" si="7"/>
-        <v>283.0800000000005</v>
+        <v>288.0800000000005</v>
       </c>
       <c r="B379" s="16">
         <f t="shared" si="6"/>
@@ -6734,7 +6732,7 @@
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="16">
         <f t="shared" si="7"/>
-        <v>283.1400000000005</v>
+        <v>288.1400000000005</v>
       </c>
       <c r="B380" s="16">
         <f t="shared" si="6"/>
@@ -6745,7 +6743,7 @@
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="16">
         <f t="shared" si="7"/>
-        <v>283.2000000000005</v>
+        <v>288.2000000000005</v>
       </c>
       <c r="B381" s="16">
         <f t="shared" si="6"/>
@@ -6756,7 +6754,7 @@
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="16">
         <f t="shared" si="7"/>
-        <v>283.2600000000005</v>
+        <v>288.2600000000005</v>
       </c>
       <c r="B382" s="16">
         <f t="shared" si="6"/>
@@ -6767,7 +6765,7 @@
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="16">
         <f t="shared" si="7"/>
-        <v>283.3200000000005</v>
+        <v>288.3200000000005</v>
       </c>
       <c r="B383" s="16">
         <f t="shared" si="6"/>
@@ -6778,7 +6776,7 @@
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="16">
         <f t="shared" si="7"/>
-        <v>283.38000000000051</v>
+        <v>288.38000000000051</v>
       </c>
       <c r="B384" s="16">
         <f t="shared" si="6"/>
@@ -6789,7 +6787,7 @@
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="16">
         <f t="shared" si="7"/>
-        <v>283.44000000000051</v>
+        <v>288.44000000000051</v>
       </c>
       <c r="B385" s="16">
         <f t="shared" si="6"/>
@@ -6800,7 +6798,7 @@
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="16">
         <f t="shared" si="7"/>
-        <v>283.50000000000051</v>
+        <v>288.50000000000051</v>
       </c>
       <c r="B386" s="16">
         <f t="shared" si="6"/>
@@ -6811,7 +6809,7 @@
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="16">
         <f t="shared" si="7"/>
-        <v>283.56000000000051</v>
+        <v>288.56000000000051</v>
       </c>
       <c r="B387" s="16">
         <f t="shared" si="6"/>
@@ -6822,7 +6820,7 @@
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="16">
         <f t="shared" si="7"/>
-        <v>283.62000000000052</v>
+        <v>288.62000000000052</v>
       </c>
       <c r="B388" s="16">
         <f t="shared" si="6"/>
@@ -6833,7 +6831,7 @@
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="16">
         <f t="shared" si="7"/>
-        <v>283.68000000000052</v>
+        <v>288.68000000000052</v>
       </c>
       <c r="B389" s="16">
         <f t="shared" si="6"/>
@@ -6844,7 +6842,7 @@
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="16">
         <f t="shared" si="7"/>
-        <v>283.74000000000052</v>
+        <v>288.74000000000052</v>
       </c>
       <c r="B390" s="16">
         <f t="shared" si="6"/>
@@ -6855,7 +6853,7 @@
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="16">
         <f t="shared" si="7"/>
-        <v>283.80000000000052</v>
+        <v>288.80000000000052</v>
       </c>
       <c r="B391" s="16">
         <f t="shared" si="6"/>
@@ -6866,7 +6864,7 @@
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="16">
         <f t="shared" si="7"/>
-        <v>283.86000000000053</v>
+        <v>288.86000000000053</v>
       </c>
       <c r="B392" s="16">
         <f t="shared" si="6"/>
@@ -6877,7 +6875,7 @@
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="16">
         <f t="shared" si="7"/>
-        <v>283.92000000000053</v>
+        <v>288.92000000000053</v>
       </c>
       <c r="B393" s="16">
         <f t="shared" si="6"/>
@@ -6888,7 +6886,7 @@
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="16">
         <f t="shared" si="7"/>
-        <v>283.98000000000053</v>
+        <v>288.98000000000053</v>
       </c>
       <c r="B394" s="16">
         <f t="shared" si="6"/>
@@ -6899,7 +6897,7 @@
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="16">
         <f t="shared" si="7"/>
-        <v>284.04000000000053</v>
+        <v>289.04000000000053</v>
       </c>
       <c r="B395" s="16">
         <f t="shared" si="6"/>
@@ -6910,7 +6908,7 @@
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="16">
         <f t="shared" si="7"/>
-        <v>284.10000000000053</v>
+        <v>289.10000000000053</v>
       </c>
       <c r="B396" s="16">
         <f t="shared" si="6"/>
@@ -6921,7 +6919,7 @@
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="16">
         <f t="shared" si="7"/>
-        <v>284.16000000000054</v>
+        <v>289.16000000000054</v>
       </c>
       <c r="B397" s="16">
         <f t="shared" si="6"/>
@@ -6932,7 +6930,7 @@
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="16">
         <f t="shared" si="7"/>
-        <v>284.22000000000054</v>
+        <v>289.22000000000054</v>
       </c>
       <c r="B398" s="16">
         <f t="shared" si="6"/>
@@ -6943,7 +6941,7 @@
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="16">
         <f t="shared" si="7"/>
-        <v>284.28000000000054</v>
+        <v>289.28000000000054</v>
       </c>
       <c r="B399" s="16">
         <f t="shared" si="6"/>
@@ -6954,7 +6952,7 @@
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="16">
         <f t="shared" si="7"/>
-        <v>284.34000000000054</v>
+        <v>289.34000000000054</v>
       </c>
       <c r="B400" s="16">
         <f t="shared" si="6"/>
@@ -6965,7 +6963,7 @@
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="16">
         <f t="shared" si="7"/>
-        <v>284.40000000000055</v>
+        <v>289.40000000000055</v>
       </c>
       <c r="B401" s="16">
         <f t="shared" si="6"/>
@@ -6976,7 +6974,7 @@
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="16">
         <f t="shared" si="7"/>
-        <v>284.46000000000055</v>
+        <v>289.46000000000055</v>
       </c>
       <c r="B402" s="16">
         <f t="shared" si="6"/>
@@ -6987,7 +6985,7 @@
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="16">
         <f t="shared" si="7"/>
-        <v>284.52000000000055</v>
+        <v>289.52000000000055</v>
       </c>
       <c r="B403" s="16">
         <f t="shared" si="6"/>
@@ -6998,7 +6996,7 @@
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="16">
         <f t="shared" si="7"/>
-        <v>284.58000000000055</v>
+        <v>289.58000000000055</v>
       </c>
       <c r="B404" s="16">
         <f t="shared" si="6"/>
@@ -7009,7 +7007,7 @@
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="16">
         <f t="shared" si="7"/>
-        <v>284.64000000000055</v>
+        <v>289.64000000000055</v>
       </c>
       <c r="B405" s="16">
         <f t="shared" si="6"/>
@@ -7020,7 +7018,7 @@
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="16">
         <f t="shared" si="7"/>
-        <v>284.70000000000056</v>
+        <v>289.70000000000056</v>
       </c>
       <c r="B406" s="16">
         <f t="shared" si="6"/>
@@ -7031,7 +7029,7 @@
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="16">
         <f t="shared" si="7"/>
-        <v>284.76000000000056</v>
+        <v>289.76000000000056</v>
       </c>
       <c r="B407" s="16">
         <f t="shared" si="6"/>
@@ -7042,7 +7040,7 @@
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="16">
         <f t="shared" si="7"/>
-        <v>284.82000000000056</v>
+        <v>289.82000000000056</v>
       </c>
       <c r="B408" s="16">
         <f t="shared" si="6"/>
@@ -7053,7 +7051,7 @@
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="16">
         <f t="shared" si="7"/>
-        <v>284.88000000000056</v>
+        <v>289.88000000000056</v>
       </c>
       <c r="B409" s="16">
         <f t="shared" si="6"/>
@@ -7064,7 +7062,7 @@
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="16">
         <f t="shared" si="7"/>
-        <v>284.94000000000057</v>
+        <v>289.94000000000057</v>
       </c>
       <c r="B410" s="16">
         <f t="shared" si="6"/>
@@ -7075,7 +7073,7 @@
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="16">
         <f t="shared" si="7"/>
-        <v>285.00000000000057</v>
+        <v>290.00000000000057</v>
       </c>
       <c r="B411" s="16">
         <f t="shared" si="6"/>
@@ -7086,7 +7084,7 @@
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="16">
         <f t="shared" si="7"/>
-        <v>285.06000000000057</v>
+        <v>290.06000000000057</v>
       </c>
       <c r="B412" s="16">
         <f t="shared" si="6"/>
@@ -7097,7 +7095,7 @@
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="16">
         <f t="shared" si="7"/>
-        <v>285.12000000000057</v>
+        <v>290.12000000000057</v>
       </c>
       <c r="B413" s="16">
         <f t="shared" si="6"/>
@@ -7108,7 +7106,7 @@
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="16">
         <f t="shared" si="7"/>
-        <v>285.18000000000058</v>
+        <v>290.18000000000058</v>
       </c>
       <c r="B414" s="16">
         <f t="shared" si="6"/>
@@ -7119,7 +7117,7 @@
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="16">
         <f t="shared" si="7"/>
-        <v>285.24000000000058</v>
+        <v>290.24000000000058</v>
       </c>
       <c r="B415" s="16">
         <f t="shared" si="6"/>
@@ -7130,7 +7128,7 @@
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="16">
         <f t="shared" si="7"/>
-        <v>285.30000000000058</v>
+        <v>290.30000000000058</v>
       </c>
       <c r="B416" s="16">
         <f t="shared" si="6"/>
@@ -7141,7 +7139,7 @@
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="16">
         <f t="shared" si="7"/>
-        <v>285.36000000000058</v>
+        <v>290.36000000000058</v>
       </c>
       <c r="B417" s="16">
         <f t="shared" si="6"/>
@@ -7152,7 +7150,7 @@
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="16">
         <f t="shared" si="7"/>
-        <v>285.42000000000058</v>
+        <v>290.42000000000058</v>
       </c>
       <c r="B418" s="16">
         <f t="shared" ref="B418:B481" si="8">NORMDIST(A418, $C$3, $C$4, FALSE)</f>
@@ -7163,7 +7161,7 @@
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="16">
         <f t="shared" ref="A419:A482" si="9">A418+$C$161</f>
-        <v>285.48000000000059</v>
+        <v>290.48000000000059</v>
       </c>
       <c r="B419" s="16">
         <f t="shared" si="8"/>
@@ -7174,7 +7172,7 @@
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="16">
         <f t="shared" si="9"/>
-        <v>285.54000000000059</v>
+        <v>290.54000000000059</v>
       </c>
       <c r="B420" s="16">
         <f t="shared" si="8"/>
@@ -7185,7 +7183,7 @@
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="16">
         <f t="shared" si="9"/>
-        <v>285.60000000000059</v>
+        <v>290.60000000000059</v>
       </c>
       <c r="B421" s="16">
         <f t="shared" si="8"/>
@@ -7196,7 +7194,7 @@
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="16">
         <f t="shared" si="9"/>
-        <v>285.66000000000059</v>
+        <v>290.66000000000059</v>
       </c>
       <c r="B422" s="16">
         <f t="shared" si="8"/>
@@ -7207,7 +7205,7 @@
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="16">
         <f t="shared" si="9"/>
-        <v>285.7200000000006</v>
+        <v>290.7200000000006</v>
       </c>
       <c r="B423" s="16">
         <f t="shared" si="8"/>
@@ -7218,7 +7216,7 @@
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="16">
         <f t="shared" si="9"/>
-        <v>285.7800000000006</v>
+        <v>290.7800000000006</v>
       </c>
       <c r="B424" s="16">
         <f t="shared" si="8"/>
@@ -7229,7 +7227,7 @@
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="16">
         <f t="shared" si="9"/>
-        <v>285.8400000000006</v>
+        <v>290.8400000000006</v>
       </c>
       <c r="B425" s="16">
         <f t="shared" si="8"/>
@@ -7240,7 +7238,7 @@
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="16">
         <f t="shared" si="9"/>
-        <v>285.9000000000006</v>
+        <v>290.9000000000006</v>
       </c>
       <c r="B426" s="16">
         <f t="shared" si="8"/>
@@ -7251,7 +7249,7 @@
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="16">
         <f t="shared" si="9"/>
-        <v>285.9600000000006</v>
+        <v>290.9600000000006</v>
       </c>
       <c r="B427" s="16">
         <f t="shared" si="8"/>
@@ -7262,7 +7260,7 @@
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="16">
         <f t="shared" si="9"/>
-        <v>286.02000000000061</v>
+        <v>291.02000000000061</v>
       </c>
       <c r="B428" s="16">
         <f t="shared" si="8"/>
@@ -7273,7 +7271,7 @@
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="16">
         <f t="shared" si="9"/>
-        <v>286.08000000000061</v>
+        <v>291.08000000000061</v>
       </c>
       <c r="B429" s="16">
         <f t="shared" si="8"/>
@@ -7284,7 +7282,7 @@
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="16">
         <f t="shared" si="9"/>
-        <v>286.14000000000061</v>
+        <v>291.14000000000061</v>
       </c>
       <c r="B430" s="16">
         <f t="shared" si="8"/>
@@ -7295,7 +7293,7 @@
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="16">
         <f t="shared" si="9"/>
-        <v>286.20000000000061</v>
+        <v>291.20000000000061</v>
       </c>
       <c r="B431" s="16">
         <f t="shared" si="8"/>
@@ -7306,7 +7304,7 @@
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="16">
         <f t="shared" si="9"/>
-        <v>286.26000000000062</v>
+        <v>291.26000000000062</v>
       </c>
       <c r="B432" s="16">
         <f t="shared" si="8"/>
@@ -7317,7 +7315,7 @@
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="16">
         <f t="shared" si="9"/>
-        <v>286.32000000000062</v>
+        <v>291.32000000000062</v>
       </c>
       <c r="B433" s="16">
         <f t="shared" si="8"/>
@@ -7328,7 +7326,7 @@
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="16">
         <f t="shared" si="9"/>
-        <v>286.38000000000062</v>
+        <v>291.38000000000062</v>
       </c>
       <c r="B434" s="16">
         <f t="shared" si="8"/>
@@ -7339,7 +7337,7 @@
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="16">
         <f t="shared" si="9"/>
-        <v>286.44000000000062</v>
+        <v>291.44000000000062</v>
       </c>
       <c r="B435" s="16">
         <f t="shared" si="8"/>
@@ -7350,7 +7348,7 @@
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="16">
         <f t="shared" si="9"/>
-        <v>286.50000000000063</v>
+        <v>291.50000000000063</v>
       </c>
       <c r="B436" s="16">
         <f t="shared" si="8"/>
@@ -7361,7 +7359,7 @@
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="16">
         <f t="shared" si="9"/>
-        <v>286.56000000000063</v>
+        <v>291.56000000000063</v>
       </c>
       <c r="B437" s="16">
         <f t="shared" si="8"/>
@@ -7372,7 +7370,7 @@
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="16">
         <f t="shared" si="9"/>
-        <v>286.62000000000063</v>
+        <v>291.62000000000063</v>
       </c>
       <c r="B438" s="16">
         <f t="shared" si="8"/>
@@ -7383,7 +7381,7 @@
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="16">
         <f t="shared" si="9"/>
-        <v>286.68000000000063</v>
+        <v>291.68000000000063</v>
       </c>
       <c r="B439" s="16">
         <f t="shared" si="8"/>
@@ -7394,7 +7392,7 @@
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="16">
         <f t="shared" si="9"/>
-        <v>286.74000000000063</v>
+        <v>291.74000000000063</v>
       </c>
       <c r="B440" s="16">
         <f t="shared" si="8"/>
@@ -7405,7 +7403,7 @@
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="16">
         <f t="shared" si="9"/>
-        <v>286.80000000000064</v>
+        <v>291.80000000000064</v>
       </c>
       <c r="B441" s="16">
         <f t="shared" si="8"/>
@@ -7416,7 +7414,7 @@
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="16">
         <f t="shared" si="9"/>
-        <v>286.86000000000064</v>
+        <v>291.86000000000064</v>
       </c>
       <c r="B442" s="16">
         <f t="shared" si="8"/>
@@ -7427,7 +7425,7 @@
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="16">
         <f t="shared" si="9"/>
-        <v>286.92000000000064</v>
+        <v>291.92000000000064</v>
       </c>
       <c r="B443" s="16">
         <f t="shared" si="8"/>
@@ -7438,7 +7436,7 @@
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="16">
         <f t="shared" si="9"/>
-        <v>286.98000000000064</v>
+        <v>291.98000000000064</v>
       </c>
       <c r="B444" s="16">
         <f t="shared" si="8"/>
@@ -7449,7 +7447,7 @@
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="16">
         <f t="shared" si="9"/>
-        <v>287.04000000000065</v>
+        <v>292.04000000000065</v>
       </c>
       <c r="B445" s="16">
         <f t="shared" si="8"/>
@@ -7460,7 +7458,7 @@
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="16">
         <f t="shared" si="9"/>
-        <v>287.10000000000065</v>
+        <v>292.10000000000065</v>
       </c>
       <c r="B446" s="16">
         <f t="shared" si="8"/>
@@ -7471,7 +7469,7 @@
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="16">
         <f t="shared" si="9"/>
-        <v>287.16000000000065</v>
+        <v>292.16000000000065</v>
       </c>
       <c r="B447" s="16">
         <f t="shared" si="8"/>
@@ -7482,7 +7480,7 @@
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="16">
         <f t="shared" si="9"/>
-        <v>287.22000000000065</v>
+        <v>292.22000000000065</v>
       </c>
       <c r="B448" s="16">
         <f t="shared" si="8"/>
@@ -7493,7 +7491,7 @@
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="16">
         <f t="shared" si="9"/>
-        <v>287.28000000000065</v>
+        <v>292.28000000000065</v>
       </c>
       <c r="B449" s="16">
         <f t="shared" si="8"/>
@@ -7504,7 +7502,7 @@
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="16">
         <f t="shared" si="9"/>
-        <v>287.34000000000066</v>
+        <v>292.34000000000066</v>
       </c>
       <c r="B450" s="16">
         <f t="shared" si="8"/>
@@ -7515,7 +7513,7 @@
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="16">
         <f t="shared" si="9"/>
-        <v>287.40000000000066</v>
+        <v>292.40000000000066</v>
       </c>
       <c r="B451" s="16">
         <f t="shared" si="8"/>
@@ -7526,7 +7524,7 @@
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="16">
         <f t="shared" si="9"/>
-        <v>287.46000000000066</v>
+        <v>292.46000000000066</v>
       </c>
       <c r="B452" s="16">
         <f t="shared" si="8"/>
@@ -7537,7 +7535,7 @@
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="16">
         <f t="shared" si="9"/>
-        <v>287.52000000000066</v>
+        <v>292.52000000000066</v>
       </c>
       <c r="B453" s="16">
         <f t="shared" si="8"/>
@@ -7548,7 +7546,7 @@
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="16">
         <f t="shared" si="9"/>
-        <v>287.58000000000067</v>
+        <v>292.58000000000067</v>
       </c>
       <c r="B454" s="16">
         <f t="shared" si="8"/>
@@ -7559,7 +7557,7 @@
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="16">
         <f t="shared" si="9"/>
-        <v>287.64000000000067</v>
+        <v>292.64000000000067</v>
       </c>
       <c r="B455" s="16">
         <f t="shared" si="8"/>
@@ -7570,7 +7568,7 @@
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="16">
         <f t="shared" si="9"/>
-        <v>287.70000000000067</v>
+        <v>292.70000000000067</v>
       </c>
       <c r="B456" s="16">
         <f t="shared" si="8"/>
@@ -7581,7 +7579,7 @@
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="16">
         <f t="shared" si="9"/>
-        <v>287.76000000000067</v>
+        <v>292.76000000000067</v>
       </c>
       <c r="B457" s="16">
         <f t="shared" si="8"/>
@@ -7592,7 +7590,7 @@
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="16">
         <f t="shared" si="9"/>
-        <v>287.82000000000068</v>
+        <v>292.82000000000068</v>
       </c>
       <c r="B458" s="16">
         <f t="shared" si="8"/>
@@ -7603,7 +7601,7 @@
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="16">
         <f t="shared" si="9"/>
-        <v>287.88000000000068</v>
+        <v>292.88000000000068</v>
       </c>
       <c r="B459" s="16">
         <f t="shared" si="8"/>
@@ -7614,7 +7612,7 @@
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="16">
         <f t="shared" si="9"/>
-        <v>287.94000000000068</v>
+        <v>292.94000000000068</v>
       </c>
       <c r="B460" s="16">
         <f t="shared" si="8"/>
@@ -7625,7 +7623,7 @@
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="16">
         <f t="shared" si="9"/>
-        <v>288.00000000000068</v>
+        <v>293.00000000000068</v>
       </c>
       <c r="B461" s="16">
         <f t="shared" si="8"/>
@@ -7636,7 +7634,7 @@
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="16">
         <f t="shared" si="9"/>
-        <v>288.06000000000068</v>
+        <v>293.06000000000068</v>
       </c>
       <c r="B462" s="16">
         <f t="shared" si="8"/>
@@ -7647,7 +7645,7 @@
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="16">
         <f t="shared" si="9"/>
-        <v>288.12000000000069</v>
+        <v>293.12000000000069</v>
       </c>
       <c r="B463" s="16">
         <f t="shared" si="8"/>
@@ -7658,7 +7656,7 @@
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="16">
         <f t="shared" si="9"/>
-        <v>288.18000000000069</v>
+        <v>293.18000000000069</v>
       </c>
       <c r="B464" s="16">
         <f t="shared" si="8"/>
@@ -7669,7 +7667,7 @@
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="16">
         <f t="shared" si="9"/>
-        <v>288.24000000000069</v>
+        <v>293.24000000000069</v>
       </c>
       <c r="B465" s="16">
         <f t="shared" si="8"/>
@@ -7680,7 +7678,7 @@
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="16">
         <f t="shared" si="9"/>
-        <v>288.30000000000069</v>
+        <v>293.30000000000069</v>
       </c>
       <c r="B466" s="16">
         <f t="shared" si="8"/>
@@ -7691,7 +7689,7 @@
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" s="16">
         <f t="shared" si="9"/>
-        <v>288.3600000000007</v>
+        <v>293.3600000000007</v>
       </c>
       <c r="B467" s="16">
         <f t="shared" si="8"/>
@@ -7702,7 +7700,7 @@
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="16">
         <f t="shared" si="9"/>
-        <v>288.4200000000007</v>
+        <v>293.4200000000007</v>
       </c>
       <c r="B468" s="16">
         <f t="shared" si="8"/>
@@ -7713,7 +7711,7 @@
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="16">
         <f t="shared" si="9"/>
-        <v>288.4800000000007</v>
+        <v>293.4800000000007</v>
       </c>
       <c r="B469" s="16">
         <f t="shared" si="8"/>
@@ -7724,7 +7722,7 @@
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="16">
         <f t="shared" si="9"/>
-        <v>288.5400000000007</v>
+        <v>293.5400000000007</v>
       </c>
       <c r="B470" s="16">
         <f t="shared" si="8"/>
@@ -7735,7 +7733,7 @@
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="16">
         <f t="shared" si="9"/>
-        <v>288.6000000000007</v>
+        <v>293.6000000000007</v>
       </c>
       <c r="B471" s="16">
         <f t="shared" si="8"/>
@@ -7746,7 +7744,7 @@
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="16">
         <f t="shared" si="9"/>
-        <v>288.66000000000071</v>
+        <v>293.66000000000071</v>
       </c>
       <c r="B472" s="16">
         <f t="shared" si="8"/>
@@ -7757,7 +7755,7 @@
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="16">
         <f t="shared" si="9"/>
-        <v>288.72000000000071</v>
+        <v>293.72000000000071</v>
       </c>
       <c r="B473" s="16">
         <f t="shared" si="8"/>
@@ -7768,7 +7766,7 @@
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="16">
         <f t="shared" si="9"/>
-        <v>288.78000000000071</v>
+        <v>293.78000000000071</v>
       </c>
       <c r="B474" s="16">
         <f t="shared" si="8"/>
@@ -7779,7 +7777,7 @@
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="16">
         <f t="shared" si="9"/>
-        <v>288.84000000000071</v>
+        <v>293.84000000000071</v>
       </c>
       <c r="B475" s="16">
         <f t="shared" si="8"/>
@@ -7790,7 +7788,7 @@
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="16">
         <f t="shared" si="9"/>
-        <v>288.90000000000072</v>
+        <v>293.90000000000072</v>
       </c>
       <c r="B476" s="16">
         <f t="shared" si="8"/>
@@ -7801,7 +7799,7 @@
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="16">
         <f t="shared" si="9"/>
-        <v>288.96000000000072</v>
+        <v>293.96000000000072</v>
       </c>
       <c r="B477" s="16">
         <f t="shared" si="8"/>
@@ -7812,7 +7810,7 @@
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="16">
         <f t="shared" si="9"/>
-        <v>289.02000000000072</v>
+        <v>294.02000000000072</v>
       </c>
       <c r="B478" s="16">
         <f t="shared" si="8"/>
@@ -7823,7 +7821,7 @@
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="16">
         <f t="shared" si="9"/>
-        <v>289.08000000000072</v>
+        <v>294.08000000000072</v>
       </c>
       <c r="B479" s="16">
         <f t="shared" si="8"/>
@@ -7834,7 +7832,7 @@
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="16">
         <f t="shared" si="9"/>
-        <v>289.14000000000073</v>
+        <v>294.14000000000073</v>
       </c>
       <c r="B480" s="16">
         <f t="shared" si="8"/>
@@ -7845,7 +7843,7 @@
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="16">
         <f t="shared" si="9"/>
-        <v>289.20000000000073</v>
+        <v>294.20000000000073</v>
       </c>
       <c r="B481" s="16">
         <f t="shared" si="8"/>
@@ -7856,7 +7854,7 @@
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="16">
         <f t="shared" si="9"/>
-        <v>289.26000000000073</v>
+        <v>294.26000000000073</v>
       </c>
       <c r="B482" s="16">
         <f t="shared" ref="B482:B545" si="10">NORMDIST(A482, $C$3, $C$4, FALSE)</f>
@@ -7867,7 +7865,7 @@
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="16">
         <f t="shared" ref="A483:A546" si="11">A482+$C$161</f>
-        <v>289.32000000000073</v>
+        <v>294.32000000000073</v>
       </c>
       <c r="B483" s="16">
         <f t="shared" si="10"/>
@@ -7878,7 +7876,7 @@
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="16">
         <f t="shared" si="11"/>
-        <v>289.38000000000073</v>
+        <v>294.38000000000073</v>
       </c>
       <c r="B484" s="16">
         <f t="shared" si="10"/>
@@ -7889,7 +7887,7 @@
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="16">
         <f t="shared" si="11"/>
-        <v>289.44000000000074</v>
+        <v>294.44000000000074</v>
       </c>
       <c r="B485" s="16">
         <f t="shared" si="10"/>
@@ -7900,7 +7898,7 @@
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="16">
         <f t="shared" si="11"/>
-        <v>289.50000000000074</v>
+        <v>294.50000000000074</v>
       </c>
       <c r="B486" s="16">
         <f t="shared" si="10"/>
@@ -7911,7 +7909,7 @@
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="16">
         <f t="shared" si="11"/>
-        <v>289.56000000000074</v>
+        <v>294.56000000000074</v>
       </c>
       <c r="B487" s="16">
         <f t="shared" si="10"/>
@@ -7922,7 +7920,7 @@
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="16">
         <f t="shared" si="11"/>
-        <v>289.62000000000074</v>
+        <v>294.62000000000074</v>
       </c>
       <c r="B488" s="16">
         <f t="shared" si="10"/>
@@ -7933,7 +7931,7 @@
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="16">
         <f t="shared" si="11"/>
-        <v>289.68000000000075</v>
+        <v>294.68000000000075</v>
       </c>
       <c r="B489" s="16">
         <f t="shared" si="10"/>
@@ -7944,7 +7942,7 @@
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="16">
         <f t="shared" si="11"/>
-        <v>289.74000000000075</v>
+        <v>294.74000000000075</v>
       </c>
       <c r="B490" s="16">
         <f t="shared" si="10"/>
@@ -7955,7 +7953,7 @@
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="16">
         <f t="shared" si="11"/>
-        <v>289.80000000000075</v>
+        <v>294.80000000000075</v>
       </c>
       <c r="B491" s="16">
         <f t="shared" si="10"/>
@@ -7966,7 +7964,7 @@
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="16">
         <f t="shared" si="11"/>
-        <v>289.86000000000075</v>
+        <v>294.86000000000075</v>
       </c>
       <c r="B492" s="16">
         <f t="shared" si="10"/>
@@ -7977,7 +7975,7 @@
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="16">
         <f t="shared" si="11"/>
-        <v>289.92000000000075</v>
+        <v>294.92000000000075</v>
       </c>
       <c r="B493" s="16">
         <f t="shared" si="10"/>
@@ -7988,7 +7986,7 @@
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="16">
         <f t="shared" si="11"/>
-        <v>289.98000000000076</v>
+        <v>294.98000000000076</v>
       </c>
       <c r="B494" s="16">
         <f t="shared" si="10"/>
@@ -7999,7 +7997,7 @@
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="16">
         <f t="shared" si="11"/>
-        <v>290.04000000000076</v>
+        <v>295.04000000000076</v>
       </c>
       <c r="B495" s="16">
         <f t="shared" si="10"/>
@@ -8010,7 +8008,7 @@
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="16">
         <f t="shared" si="11"/>
-        <v>290.10000000000076</v>
+        <v>295.10000000000076</v>
       </c>
       <c r="B496" s="16">
         <f t="shared" si="10"/>
@@ -8021,7 +8019,7 @@
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="16">
         <f t="shared" si="11"/>
-        <v>290.16000000000076</v>
+        <v>295.16000000000076</v>
       </c>
       <c r="B497" s="16">
         <f t="shared" si="10"/>
@@ -8032,7 +8030,7 @@
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="16">
         <f t="shared" si="11"/>
-        <v>290.22000000000077</v>
+        <v>295.22000000000077</v>
       </c>
       <c r="B498" s="16">
         <f t="shared" si="10"/>
@@ -8043,7 +8041,7 @@
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="16">
         <f t="shared" si="11"/>
-        <v>290.28000000000077</v>
+        <v>295.28000000000077</v>
       </c>
       <c r="B499" s="16">
         <f t="shared" si="10"/>
@@ -8054,7 +8052,7 @@
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="16">
         <f t="shared" si="11"/>
-        <v>290.34000000000077</v>
+        <v>295.34000000000077</v>
       </c>
       <c r="B500" s="16">
         <f t="shared" si="10"/>
@@ -8065,7 +8063,7 @@
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="16">
         <f t="shared" si="11"/>
-        <v>290.40000000000077</v>
+        <v>295.40000000000077</v>
       </c>
       <c r="B501" s="16">
         <f t="shared" si="10"/>
@@ -8076,7 +8074,7 @@
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="16">
         <f t="shared" si="11"/>
-        <v>290.46000000000078</v>
+        <v>295.46000000000078</v>
       </c>
       <c r="B502" s="16">
         <f t="shared" si="10"/>
@@ -8087,7 +8085,7 @@
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="16">
         <f t="shared" si="11"/>
-        <v>290.52000000000078</v>
+        <v>295.52000000000078</v>
       </c>
       <c r="B503" s="16">
         <f t="shared" si="10"/>
@@ -8098,7 +8096,7 @@
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="16">
         <f t="shared" si="11"/>
-        <v>290.58000000000078</v>
+        <v>295.58000000000078</v>
       </c>
       <c r="B504" s="16">
         <f t="shared" si="10"/>
@@ -8109,7 +8107,7 @@
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="16">
         <f t="shared" si="11"/>
-        <v>290.64000000000078</v>
+        <v>295.64000000000078</v>
       </c>
       <c r="B505" s="16">
         <f t="shared" si="10"/>
@@ -8120,7 +8118,7 @@
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="16">
         <f t="shared" si="11"/>
-        <v>290.70000000000078</v>
+        <v>295.70000000000078</v>
       </c>
       <c r="B506" s="16">
         <f t="shared" si="10"/>
@@ -8131,7 +8129,7 @@
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="16">
         <f t="shared" si="11"/>
-        <v>290.76000000000079</v>
+        <v>295.76000000000079</v>
       </c>
       <c r="B507" s="16">
         <f t="shared" si="10"/>
@@ -8142,7 +8140,7 @@
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="16">
         <f t="shared" si="11"/>
-        <v>290.82000000000079</v>
+        <v>295.82000000000079</v>
       </c>
       <c r="B508" s="16">
         <f t="shared" si="10"/>
@@ -8153,7 +8151,7 @@
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="16">
         <f t="shared" si="11"/>
-        <v>290.88000000000079</v>
+        <v>295.88000000000079</v>
       </c>
       <c r="B509" s="16">
         <f t="shared" si="10"/>
@@ -8164,7 +8162,7 @@
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="16">
         <f t="shared" si="11"/>
-        <v>290.94000000000079</v>
+        <v>295.94000000000079</v>
       </c>
       <c r="B510" s="16">
         <f t="shared" si="10"/>
@@ -8175,7 +8173,7 @@
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="16">
         <f t="shared" si="11"/>
-        <v>291.0000000000008</v>
+        <v>296.0000000000008</v>
       </c>
       <c r="B511" s="16">
         <f t="shared" si="10"/>
@@ -8186,7 +8184,7 @@
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="16">
         <f t="shared" si="11"/>
-        <v>291.0600000000008</v>
+        <v>296.0600000000008</v>
       </c>
       <c r="B512" s="16">
         <f t="shared" si="10"/>
@@ -8197,7 +8195,7 @@
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="16">
         <f t="shared" si="11"/>
-        <v>291.1200000000008</v>
+        <v>296.1200000000008</v>
       </c>
       <c r="B513" s="16">
         <f t="shared" si="10"/>
@@ -8208,7 +8206,7 @@
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="16">
         <f t="shared" si="11"/>
-        <v>291.1800000000008</v>
+        <v>296.1800000000008</v>
       </c>
       <c r="B514" s="16">
         <f t="shared" si="10"/>
@@ -8219,7 +8217,7 @@
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="16">
         <f t="shared" si="11"/>
-        <v>291.2400000000008</v>
+        <v>296.2400000000008</v>
       </c>
       <c r="B515" s="16">
         <f t="shared" si="10"/>
@@ -8230,7 +8228,7 @@
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="16">
         <f t="shared" si="11"/>
-        <v>291.30000000000081</v>
+        <v>296.30000000000081</v>
       </c>
       <c r="B516" s="16">
         <f t="shared" si="10"/>
@@ -8241,7 +8239,7 @@
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="16">
         <f t="shared" si="11"/>
-        <v>291.36000000000081</v>
+        <v>296.36000000000081</v>
       </c>
       <c r="B517" s="16">
         <f t="shared" si="10"/>
@@ -8252,7 +8250,7 @@
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="16">
         <f t="shared" si="11"/>
-        <v>291.42000000000081</v>
+        <v>296.42000000000081</v>
       </c>
       <c r="B518" s="16">
         <f t="shared" si="10"/>
@@ -8263,7 +8261,7 @@
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="16">
         <f t="shared" si="11"/>
-        <v>291.48000000000081</v>
+        <v>296.48000000000081</v>
       </c>
       <c r="B519" s="16">
         <f t="shared" si="10"/>
@@ -8274,7 +8272,7 @@
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="16">
         <f t="shared" si="11"/>
-        <v>291.54000000000082</v>
+        <v>296.54000000000082</v>
       </c>
       <c r="B520" s="16">
         <f t="shared" si="10"/>
@@ -8285,7 +8283,7 @@
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="16">
         <f t="shared" si="11"/>
-        <v>291.60000000000082</v>
+        <v>296.60000000000082</v>
       </c>
       <c r="B521" s="16">
         <f t="shared" si="10"/>
@@ -8296,7 +8294,7 @@
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="16">
         <f t="shared" si="11"/>
-        <v>291.66000000000082</v>
+        <v>296.66000000000082</v>
       </c>
       <c r="B522" s="16">
         <f t="shared" si="10"/>
@@ -8307,7 +8305,7 @@
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="16">
         <f t="shared" si="11"/>
-        <v>291.72000000000082</v>
+        <v>296.72000000000082</v>
       </c>
       <c r="B523" s="16">
         <f t="shared" si="10"/>
@@ -8318,7 +8316,7 @@
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="16">
         <f t="shared" si="11"/>
-        <v>291.78000000000083</v>
+        <v>296.78000000000083</v>
       </c>
       <c r="B524" s="16">
         <f t="shared" si="10"/>
@@ -8329,7 +8327,7 @@
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="16">
         <f t="shared" si="11"/>
-        <v>291.84000000000083</v>
+        <v>296.84000000000083</v>
       </c>
       <c r="B525" s="16">
         <f t="shared" si="10"/>
@@ -8340,7 +8338,7 @@
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="16">
         <f t="shared" si="11"/>
-        <v>291.90000000000083</v>
+        <v>296.90000000000083</v>
       </c>
       <c r="B526" s="16">
         <f t="shared" si="10"/>
@@ -8351,7 +8349,7 @@
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="16">
         <f t="shared" si="11"/>
-        <v>291.96000000000083</v>
+        <v>296.96000000000083</v>
       </c>
       <c r="B527" s="16">
         <f t="shared" si="10"/>
@@ -8362,7 +8360,7 @@
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="16">
         <f t="shared" si="11"/>
-        <v>292.02000000000083</v>
+        <v>297.02000000000083</v>
       </c>
       <c r="B528" s="16">
         <f t="shared" si="10"/>
@@ -8373,7 +8371,7 @@
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" s="16">
         <f t="shared" si="11"/>
-        <v>292.08000000000084</v>
+        <v>297.08000000000084</v>
       </c>
       <c r="B529" s="16">
         <f t="shared" si="10"/>
@@ -8384,7 +8382,7 @@
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" s="16">
         <f t="shared" si="11"/>
-        <v>292.14000000000084</v>
+        <v>297.14000000000084</v>
       </c>
       <c r="B530" s="16">
         <f t="shared" si="10"/>
@@ -8395,7 +8393,7 @@
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" s="16">
         <f t="shared" si="11"/>
-        <v>292.20000000000084</v>
+        <v>297.20000000000084</v>
       </c>
       <c r="B531" s="16">
         <f t="shared" si="10"/>
@@ -8406,7 +8404,7 @@
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="16">
         <f t="shared" si="11"/>
-        <v>292.26000000000084</v>
+        <v>297.26000000000084</v>
       </c>
       <c r="B532" s="16">
         <f t="shared" si="10"/>
@@ -8417,7 +8415,7 @@
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" s="16">
         <f t="shared" si="11"/>
-        <v>292.32000000000085</v>
+        <v>297.32000000000085</v>
       </c>
       <c r="B533" s="16">
         <f t="shared" si="10"/>
@@ -8428,7 +8426,7 @@
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="16">
         <f t="shared" si="11"/>
-        <v>292.38000000000085</v>
+        <v>297.38000000000085</v>
       </c>
       <c r="B534" s="16">
         <f t="shared" si="10"/>
@@ -8439,7 +8437,7 @@
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" s="16">
         <f t="shared" si="11"/>
-        <v>292.44000000000085</v>
+        <v>297.44000000000085</v>
       </c>
       <c r="B535" s="16">
         <f t="shared" si="10"/>
@@ -8450,7 +8448,7 @@
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="16">
         <f t="shared" si="11"/>
-        <v>292.50000000000085</v>
+        <v>297.50000000000085</v>
       </c>
       <c r="B536" s="16">
         <f t="shared" si="10"/>
@@ -8461,7 +8459,7 @@
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="16">
         <f t="shared" si="11"/>
-        <v>292.56000000000085</v>
+        <v>297.56000000000085</v>
       </c>
       <c r="B537" s="16">
         <f t="shared" si="10"/>
@@ -8472,7 +8470,7 @@
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="16">
         <f t="shared" si="11"/>
-        <v>292.62000000000086</v>
+        <v>297.62000000000086</v>
       </c>
       <c r="B538" s="16">
         <f t="shared" si="10"/>
@@ -8483,7 +8481,7 @@
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="16">
         <f t="shared" si="11"/>
-        <v>292.68000000000086</v>
+        <v>297.68000000000086</v>
       </c>
       <c r="B539" s="16">
         <f t="shared" si="10"/>
@@ -8494,7 +8492,7 @@
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="16">
         <f t="shared" si="11"/>
-        <v>292.74000000000086</v>
+        <v>297.74000000000086</v>
       </c>
       <c r="B540" s="16">
         <f t="shared" si="10"/>
@@ -8505,7 +8503,7 @@
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="16">
         <f t="shared" si="11"/>
-        <v>292.80000000000086</v>
+        <v>297.80000000000086</v>
       </c>
       <c r="B541" s="16">
         <f t="shared" si="10"/>
@@ -8516,7 +8514,7 @@
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="16">
         <f t="shared" si="11"/>
-        <v>292.86000000000087</v>
+        <v>297.86000000000087</v>
       </c>
       <c r="B542" s="16">
         <f t="shared" si="10"/>
@@ -8527,7 +8525,7 @@
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="16">
         <f t="shared" si="11"/>
-        <v>292.92000000000087</v>
+        <v>297.92000000000087</v>
       </c>
       <c r="B543" s="16">
         <f t="shared" si="10"/>
@@ -8538,7 +8536,7 @@
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="16">
         <f t="shared" si="11"/>
-        <v>292.98000000000087</v>
+        <v>297.98000000000087</v>
       </c>
       <c r="B544" s="16">
         <f t="shared" si="10"/>
@@ -8549,7 +8547,7 @@
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="16">
         <f t="shared" si="11"/>
-        <v>293.04000000000087</v>
+        <v>298.04000000000087</v>
       </c>
       <c r="B545" s="16">
         <f t="shared" si="10"/>
@@ -8560,7 +8558,7 @@
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="16">
         <f t="shared" si="11"/>
-        <v>293.10000000000088</v>
+        <v>298.10000000000088</v>
       </c>
       <c r="B546" s="16">
         <f t="shared" ref="B546:B609" si="12">NORMDIST(A546, $C$3, $C$4, FALSE)</f>
@@ -8571,7 +8569,7 @@
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="16">
         <f t="shared" ref="A547:A610" si="13">A546+$C$161</f>
-        <v>293.16000000000088</v>
+        <v>298.16000000000088</v>
       </c>
       <c r="B547" s="16">
         <f t="shared" si="12"/>
@@ -8582,7 +8580,7 @@
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="16">
         <f t="shared" si="13"/>
-        <v>293.22000000000088</v>
+        <v>298.22000000000088</v>
       </c>
       <c r="B548" s="16">
         <f t="shared" si="12"/>
@@ -8593,7 +8591,7 @@
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="16">
         <f t="shared" si="13"/>
-        <v>293.28000000000088</v>
+        <v>298.28000000000088</v>
       </c>
       <c r="B549" s="16">
         <f t="shared" si="12"/>
@@ -8604,7 +8602,7 @@
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="16">
         <f t="shared" si="13"/>
-        <v>293.34000000000088</v>
+        <v>298.34000000000088</v>
       </c>
       <c r="B550" s="16">
         <f t="shared" si="12"/>
@@ -8615,7 +8613,7 @@
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="16">
         <f t="shared" si="13"/>
-        <v>293.40000000000089</v>
+        <v>298.40000000000089</v>
       </c>
       <c r="B551" s="16">
         <f t="shared" si="12"/>
@@ -8626,7 +8624,7 @@
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="16">
         <f t="shared" si="13"/>
-        <v>293.46000000000089</v>
+        <v>298.46000000000089</v>
       </c>
       <c r="B552" s="16">
         <f t="shared" si="12"/>
@@ -8637,7 +8635,7 @@
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="16">
         <f t="shared" si="13"/>
-        <v>293.52000000000089</v>
+        <v>298.52000000000089</v>
       </c>
       <c r="B553" s="16">
         <f t="shared" si="12"/>
@@ -8648,7 +8646,7 @@
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="16">
         <f t="shared" si="13"/>
-        <v>293.58000000000089</v>
+        <v>298.58000000000089</v>
       </c>
       <c r="B554" s="16">
         <f t="shared" si="12"/>
@@ -8659,7 +8657,7 @@
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="16">
         <f t="shared" si="13"/>
-        <v>293.6400000000009</v>
+        <v>298.6400000000009</v>
       </c>
       <c r="B555" s="16">
         <f t="shared" si="12"/>
@@ -8670,7 +8668,7 @@
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="16">
         <f t="shared" si="13"/>
-        <v>293.7000000000009</v>
+        <v>298.7000000000009</v>
       </c>
       <c r="B556" s="16">
         <f t="shared" si="12"/>
@@ -8681,7 +8679,7 @@
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="16">
         <f t="shared" si="13"/>
-        <v>293.7600000000009</v>
+        <v>298.7600000000009</v>
       </c>
       <c r="B557" s="16">
         <f t="shared" si="12"/>
@@ -8692,7 +8690,7 @@
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="16">
         <f t="shared" si="13"/>
-        <v>293.8200000000009</v>
+        <v>298.8200000000009</v>
       </c>
       <c r="B558" s="16">
         <f t="shared" si="12"/>
@@ -8703,7 +8701,7 @@
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="16">
         <f t="shared" si="13"/>
-        <v>293.8800000000009</v>
+        <v>298.8800000000009</v>
       </c>
       <c r="B559" s="16">
         <f t="shared" si="12"/>
@@ -8714,7 +8712,7 @@
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="16">
         <f t="shared" si="13"/>
-        <v>293.94000000000091</v>
+        <v>298.94000000000091</v>
       </c>
       <c r="B560" s="16">
         <f t="shared" si="12"/>
@@ -8725,7 +8723,7 @@
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="16">
         <f t="shared" si="13"/>
-        <v>294.00000000000091</v>
+        <v>299.00000000000091</v>
       </c>
       <c r="B561" s="16">
         <f t="shared" si="12"/>
@@ -8736,7 +8734,7 @@
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="16">
         <f t="shared" si="13"/>
-        <v>294.06000000000091</v>
+        <v>299.06000000000091</v>
       </c>
       <c r="B562" s="16">
         <f t="shared" si="12"/>
@@ -8747,7 +8745,7 @@
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="16">
         <f t="shared" si="13"/>
-        <v>294.12000000000091</v>
+        <v>299.12000000000091</v>
       </c>
       <c r="B563" s="16">
         <f t="shared" si="12"/>
@@ -8758,7 +8756,7 @@
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="16">
         <f t="shared" si="13"/>
-        <v>294.18000000000092</v>
+        <v>299.18000000000092</v>
       </c>
       <c r="B564" s="16">
         <f t="shared" si="12"/>
@@ -8769,7 +8767,7 @@
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="16">
         <f t="shared" si="13"/>
-        <v>294.24000000000092</v>
+        <v>299.24000000000092</v>
       </c>
       <c r="B565" s="16">
         <f t="shared" si="12"/>
@@ -8780,7 +8778,7 @@
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="16">
         <f t="shared" si="13"/>
-        <v>294.30000000000092</v>
+        <v>299.30000000000092</v>
       </c>
       <c r="B566" s="16">
         <f t="shared" si="12"/>
@@ -8791,7 +8789,7 @@
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="16">
         <f t="shared" si="13"/>
-        <v>294.36000000000092</v>
+        <v>299.36000000000092</v>
       </c>
       <c r="B567" s="16">
         <f t="shared" si="12"/>
@@ -8802,7 +8800,7 @@
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="16">
         <f t="shared" si="13"/>
-        <v>294.42000000000093</v>
+        <v>299.42000000000093</v>
       </c>
       <c r="B568" s="16">
         <f t="shared" si="12"/>
@@ -8813,7 +8811,7 @@
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="16">
         <f t="shared" si="13"/>
-        <v>294.48000000000093</v>
+        <v>299.48000000000093</v>
       </c>
       <c r="B569" s="16">
         <f t="shared" si="12"/>
@@ -8824,7 +8822,7 @@
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="16">
         <f t="shared" si="13"/>
-        <v>294.54000000000093</v>
+        <v>299.54000000000093</v>
       </c>
       <c r="B570" s="16">
         <f t="shared" si="12"/>
@@ -8835,7 +8833,7 @@
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="16">
         <f t="shared" si="13"/>
-        <v>294.60000000000093</v>
+        <v>299.60000000000093</v>
       </c>
       <c r="B571" s="16">
         <f t="shared" si="12"/>
@@ -8846,7 +8844,7 @@
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="16">
         <f t="shared" si="13"/>
-        <v>294.66000000000093</v>
+        <v>299.66000000000093</v>
       </c>
       <c r="B572" s="16">
         <f t="shared" si="12"/>
@@ -8857,7 +8855,7 @@
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="16">
         <f t="shared" si="13"/>
-        <v>294.72000000000094</v>
+        <v>299.72000000000094</v>
       </c>
       <c r="B573" s="16">
         <f t="shared" si="12"/>
@@ -8868,7 +8866,7 @@
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="16">
         <f t="shared" si="13"/>
-        <v>294.78000000000094</v>
+        <v>299.78000000000094</v>
       </c>
       <c r="B574" s="16">
         <f t="shared" si="12"/>
@@ -8879,7 +8877,7 @@
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="16">
         <f t="shared" si="13"/>
-        <v>294.84000000000094</v>
+        <v>299.84000000000094</v>
       </c>
       <c r="B575" s="16">
         <f t="shared" si="12"/>
@@ -8890,7 +8888,7 @@
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="16">
         <f t="shared" si="13"/>
-        <v>294.90000000000094</v>
+        <v>299.90000000000094</v>
       </c>
       <c r="B576" s="16">
         <f t="shared" si="12"/>
@@ -8901,7 +8899,7 @@
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="16">
         <f t="shared" si="13"/>
-        <v>294.96000000000095</v>
+        <v>299.96000000000095</v>
       </c>
       <c r="B577" s="16">
         <f t="shared" si="12"/>
@@ -8912,7 +8910,7 @@
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="16">
         <f t="shared" si="13"/>
-        <v>295.02000000000095</v>
+        <v>300.02000000000095</v>
       </c>
       <c r="B578" s="16">
         <f t="shared" si="12"/>
@@ -8923,7 +8921,7 @@
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="16">
         <f t="shared" si="13"/>
-        <v>295.08000000000095</v>
+        <v>300.08000000000095</v>
       </c>
       <c r="B579" s="16">
         <f t="shared" si="12"/>
@@ -8934,7 +8932,7 @@
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="16">
         <f t="shared" si="13"/>
-        <v>295.14000000000095</v>
+        <v>300.14000000000095</v>
       </c>
       <c r="B580" s="16">
         <f t="shared" si="12"/>
@@ -8945,7 +8943,7 @@
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="16">
         <f t="shared" si="13"/>
-        <v>295.20000000000095</v>
+        <v>300.20000000000095</v>
       </c>
       <c r="B581" s="16">
         <f t="shared" si="12"/>
@@ -8956,7 +8954,7 @@
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="16">
         <f t="shared" si="13"/>
-        <v>295.26000000000096</v>
+        <v>300.26000000000096</v>
       </c>
       <c r="B582" s="16">
         <f t="shared" si="12"/>
@@ -8967,7 +8965,7 @@
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="16">
         <f t="shared" si="13"/>
-        <v>295.32000000000096</v>
+        <v>300.32000000000096</v>
       </c>
       <c r="B583" s="16">
         <f t="shared" si="12"/>
@@ -8978,7 +8976,7 @@
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="16">
         <f t="shared" si="13"/>
-        <v>295.38000000000096</v>
+        <v>300.38000000000096</v>
       </c>
       <c r="B584" s="16">
         <f t="shared" si="12"/>
@@ -8989,7 +8987,7 @@
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="16">
         <f t="shared" si="13"/>
-        <v>295.44000000000096</v>
+        <v>300.44000000000096</v>
       </c>
       <c r="B585" s="16">
         <f t="shared" si="12"/>
@@ -9000,7 +8998,7 @@
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="16">
         <f t="shared" si="13"/>
-        <v>295.50000000000097</v>
+        <v>300.50000000000097</v>
       </c>
       <c r="B586" s="16">
         <f t="shared" si="12"/>
@@ -9011,7 +9009,7 @@
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="16">
         <f t="shared" si="13"/>
-        <v>295.56000000000097</v>
+        <v>300.56000000000097</v>
       </c>
       <c r="B587" s="16">
         <f t="shared" si="12"/>
@@ -9022,7 +9020,7 @@
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="16">
         <f t="shared" si="13"/>
-        <v>295.62000000000097</v>
+        <v>300.62000000000097</v>
       </c>
       <c r="B588" s="16">
         <f t="shared" si="12"/>
@@ -9033,7 +9031,7 @@
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="16">
         <f t="shared" si="13"/>
-        <v>295.68000000000097</v>
+        <v>300.68000000000097</v>
       </c>
       <c r="B589" s="16">
         <f t="shared" si="12"/>
@@ -9044,7 +9042,7 @@
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="16">
         <f t="shared" si="13"/>
-        <v>295.74000000000098</v>
+        <v>300.74000000000098</v>
       </c>
       <c r="B590" s="16">
         <f t="shared" si="12"/>
@@ -9055,7 +9053,7 @@
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="16">
         <f t="shared" si="13"/>
-        <v>295.80000000000098</v>
+        <v>300.80000000000098</v>
       </c>
       <c r="B591" s="16">
         <f t="shared" si="12"/>
@@ -9066,7 +9064,7 @@
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="16">
         <f t="shared" si="13"/>
-        <v>295.86000000000098</v>
+        <v>300.86000000000098</v>
       </c>
       <c r="B592" s="16">
         <f t="shared" si="12"/>
@@ -9077,7 +9075,7 @@
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="16">
         <f t="shared" si="13"/>
-        <v>295.92000000000098</v>
+        <v>300.92000000000098</v>
       </c>
       <c r="B593" s="16">
         <f t="shared" si="12"/>
@@ -9088,7 +9086,7 @@
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="16">
         <f t="shared" si="13"/>
-        <v>295.98000000000098</v>
+        <v>300.98000000000098</v>
       </c>
       <c r="B594" s="16">
         <f t="shared" si="12"/>
@@ -9099,7 +9097,7 @@
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="16">
         <f t="shared" si="13"/>
-        <v>296.04000000000099</v>
+        <v>301.04000000000099</v>
       </c>
       <c r="B595" s="16">
         <f t="shared" si="12"/>
@@ -9110,7 +9108,7 @@
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="16">
         <f t="shared" si="13"/>
-        <v>296.10000000000099</v>
+        <v>301.10000000000099</v>
       </c>
       <c r="B596" s="16">
         <f t="shared" si="12"/>
@@ -9121,7 +9119,7 @@
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="16">
         <f t="shared" si="13"/>
-        <v>296.16000000000099</v>
+        <v>301.16000000000099</v>
       </c>
       <c r="B597" s="16">
         <f t="shared" si="12"/>
@@ -9132,7 +9130,7 @@
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="16">
         <f t="shared" si="13"/>
-        <v>296.22000000000099</v>
+        <v>301.22000000000099</v>
       </c>
       <c r="B598" s="16">
         <f t="shared" si="12"/>
@@ -9143,7 +9141,7 @@
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="16">
         <f t="shared" si="13"/>
-        <v>296.280000000001</v>
+        <v>301.280000000001</v>
       </c>
       <c r="B599" s="16">
         <f t="shared" si="12"/>
@@ -9154,7 +9152,7 @@
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="16">
         <f t="shared" si="13"/>
-        <v>296.340000000001</v>
+        <v>301.340000000001</v>
       </c>
       <c r="B600" s="16">
         <f t="shared" si="12"/>
@@ -9165,7 +9163,7 @@
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="16">
         <f t="shared" si="13"/>
-        <v>296.400000000001</v>
+        <v>301.400000000001</v>
       </c>
       <c r="B601" s="16">
         <f t="shared" si="12"/>
@@ -9176,7 +9174,7 @@
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="16">
         <f t="shared" si="13"/>
-        <v>296.460000000001</v>
+        <v>301.460000000001</v>
       </c>
       <c r="B602" s="16">
         <f t="shared" si="12"/>
@@ -9187,7 +9185,7 @@
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="16">
         <f t="shared" si="13"/>
-        <v>296.520000000001</v>
+        <v>301.520000000001</v>
       </c>
       <c r="B603" s="16">
         <f t="shared" si="12"/>
@@ -9198,7 +9196,7 @@
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="16">
         <f t="shared" si="13"/>
-        <v>296.58000000000101</v>
+        <v>301.58000000000101</v>
       </c>
       <c r="B604" s="16">
         <f t="shared" si="12"/>
@@ -9209,7 +9207,7 @@
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="16">
         <f t="shared" si="13"/>
-        <v>296.64000000000101</v>
+        <v>301.64000000000101</v>
       </c>
       <c r="B605" s="16">
         <f t="shared" si="12"/>
@@ -9220,7 +9218,7 @@
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="16">
         <f t="shared" si="13"/>
-        <v>296.70000000000101</v>
+        <v>301.70000000000101</v>
       </c>
       <c r="B606" s="16">
         <f t="shared" si="12"/>
@@ -9231,7 +9229,7 @@
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="16">
         <f t="shared" si="13"/>
-        <v>296.76000000000101</v>
+        <v>301.76000000000101</v>
       </c>
       <c r="B607" s="16">
         <f t="shared" si="12"/>
@@ -9242,7 +9240,7 @@
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="16">
         <f t="shared" si="13"/>
-        <v>296.82000000000102</v>
+        <v>301.82000000000102</v>
       </c>
       <c r="B608" s="16">
         <f t="shared" si="12"/>
@@ -9253,7 +9251,7 @@
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="16">
         <f t="shared" si="13"/>
-        <v>296.88000000000102</v>
+        <v>301.88000000000102</v>
       </c>
       <c r="B609" s="16">
         <f t="shared" si="12"/>
@@ -9264,7 +9262,7 @@
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="16">
         <f t="shared" si="13"/>
-        <v>296.94000000000102</v>
+        <v>301.94000000000102</v>
       </c>
       <c r="B610" s="16">
         <f t="shared" ref="B610:B661" si="14">NORMDIST(A610, $C$3, $C$4, FALSE)</f>
@@ -9275,7 +9273,7 @@
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="16">
         <f t="shared" ref="A611:A661" si="15">A610+$C$161</f>
-        <v>297.00000000000102</v>
+        <v>302.00000000000102</v>
       </c>
       <c r="B611" s="16">
         <f t="shared" si="14"/>
@@ -9286,7 +9284,7 @@
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="16">
         <f t="shared" si="15"/>
-        <v>297.06000000000103</v>
+        <v>302.06000000000103</v>
       </c>
       <c r="B612" s="16">
         <f t="shared" si="14"/>
@@ -9297,7 +9295,7 @@
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="16">
         <f t="shared" si="15"/>
-        <v>297.12000000000103</v>
+        <v>302.12000000000103</v>
       </c>
       <c r="B613" s="16">
         <f t="shared" si="14"/>
@@ -9308,7 +9306,7 @@
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="16">
         <f t="shared" si="15"/>
-        <v>297.18000000000103</v>
+        <v>302.18000000000103</v>
       </c>
       <c r="B614" s="16">
         <f t="shared" si="14"/>
@@ -9319,7 +9317,7 @@
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="16">
         <f t="shared" si="15"/>
-        <v>297.24000000000103</v>
+        <v>302.24000000000103</v>
       </c>
       <c r="B615" s="16">
         <f t="shared" si="14"/>
@@ -9330,7 +9328,7 @@
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="16">
         <f t="shared" si="15"/>
-        <v>297.30000000000103</v>
+        <v>302.30000000000103</v>
       </c>
       <c r="B616" s="16">
         <f t="shared" si="14"/>
@@ -9341,7 +9339,7 @@
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="16">
         <f t="shared" si="15"/>
-        <v>297.36000000000104</v>
+        <v>302.36000000000104</v>
       </c>
       <c r="B617" s="16">
         <f t="shared" si="14"/>
@@ -9352,7 +9350,7 @@
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="16">
         <f t="shared" si="15"/>
-        <v>297.42000000000104</v>
+        <v>302.42000000000104</v>
       </c>
       <c r="B618" s="16">
         <f t="shared" si="14"/>
@@ -9363,7 +9361,7 @@
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="16">
         <f t="shared" si="15"/>
-        <v>297.48000000000104</v>
+        <v>302.48000000000104</v>
       </c>
       <c r="B619" s="16">
         <f t="shared" si="14"/>
@@ -9374,7 +9372,7 @@
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="16">
         <f t="shared" si="15"/>
-        <v>297.54000000000104</v>
+        <v>302.54000000000104</v>
       </c>
       <c r="B620" s="16">
         <f t="shared" si="14"/>
@@ -9385,7 +9383,7 @@
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="16">
         <f t="shared" si="15"/>
-        <v>297.60000000000105</v>
+        <v>302.60000000000105</v>
       </c>
       <c r="B621" s="16">
         <f t="shared" si="14"/>
@@ -9396,7 +9394,7 @@
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="16">
         <f t="shared" si="15"/>
-        <v>297.66000000000105</v>
+        <v>302.66000000000105</v>
       </c>
       <c r="B622" s="16">
         <f t="shared" si="14"/>
@@ -9407,7 +9405,7 @@
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="16">
         <f t="shared" si="15"/>
-        <v>297.72000000000105</v>
+        <v>302.72000000000105</v>
       </c>
       <c r="B623" s="16">
         <f t="shared" si="14"/>
@@ -9418,7 +9416,7 @@
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="16">
         <f t="shared" si="15"/>
-        <v>297.78000000000105</v>
+        <v>302.78000000000105</v>
       </c>
       <c r="B624" s="16">
         <f t="shared" si="14"/>
@@ -9429,7 +9427,7 @@
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="16">
         <f t="shared" si="15"/>
-        <v>297.84000000000106</v>
+        <v>302.84000000000106</v>
       </c>
       <c r="B625" s="16">
         <f t="shared" si="14"/>
@@ -9440,7 +9438,7 @@
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="16">
         <f t="shared" si="15"/>
-        <v>297.90000000000106</v>
+        <v>302.90000000000106</v>
       </c>
       <c r="B626" s="16">
         <f t="shared" si="14"/>
@@ -9451,7 +9449,7 @@
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="16">
         <f t="shared" si="15"/>
-        <v>297.96000000000106</v>
+        <v>302.96000000000106</v>
       </c>
       <c r="B627" s="16">
         <f t="shared" si="14"/>
@@ -9462,7 +9460,7 @@
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="16">
         <f t="shared" si="15"/>
-        <v>298.02000000000106</v>
+        <v>303.02000000000106</v>
       </c>
       <c r="B628" s="16">
         <f t="shared" si="14"/>
@@ -9473,7 +9471,7 @@
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="16">
         <f t="shared" si="15"/>
-        <v>298.08000000000106</v>
+        <v>303.08000000000106</v>
       </c>
       <c r="B629" s="16">
         <f t="shared" si="14"/>
@@ -9484,7 +9482,7 @@
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="16">
         <f t="shared" si="15"/>
-        <v>298.14000000000107</v>
+        <v>303.14000000000107</v>
       </c>
       <c r="B630" s="16">
         <f t="shared" si="14"/>
@@ -9495,7 +9493,7 @@
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="16">
         <f t="shared" si="15"/>
-        <v>298.20000000000107</v>
+        <v>303.20000000000107</v>
       </c>
       <c r="B631" s="16">
         <f t="shared" si="14"/>
@@ -9506,7 +9504,7 @@
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="16">
         <f t="shared" si="15"/>
-        <v>298.26000000000107</v>
+        <v>303.26000000000107</v>
       </c>
       <c r="B632" s="16">
         <f t="shared" si="14"/>
@@ -9517,7 +9515,7 @@
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="16">
         <f t="shared" si="15"/>
-        <v>298.32000000000107</v>
+        <v>303.32000000000107</v>
       </c>
       <c r="B633" s="16">
         <f t="shared" si="14"/>
@@ -9528,7 +9526,7 @@
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="16">
         <f t="shared" si="15"/>
-        <v>298.38000000000108</v>
+        <v>303.38000000000108</v>
       </c>
       <c r="B634" s="16">
         <f t="shared" si="14"/>
@@ -9539,7 +9537,7 @@
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" s="16">
         <f t="shared" si="15"/>
-        <v>298.44000000000108</v>
+        <v>303.44000000000108</v>
       </c>
       <c r="B635" s="16">
         <f t="shared" si="14"/>
@@ -9550,7 +9548,7 @@
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" s="16">
         <f t="shared" si="15"/>
-        <v>298.50000000000108</v>
+        <v>303.50000000000108</v>
       </c>
       <c r="B636" s="16">
         <f t="shared" si="14"/>
@@ -9561,7 +9559,7 @@
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" s="16">
         <f t="shared" si="15"/>
-        <v>298.56000000000108</v>
+        <v>303.56000000000108</v>
       </c>
       <c r="B637" s="16">
         <f t="shared" si="14"/>
@@ -9572,7 +9570,7 @@
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="16">
         <f t="shared" si="15"/>
-        <v>298.62000000000108</v>
+        <v>303.62000000000108</v>
       </c>
       <c r="B638" s="16">
         <f t="shared" si="14"/>
@@ -9583,7 +9581,7 @@
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" s="16">
         <f t="shared" si="15"/>
-        <v>298.68000000000109</v>
+        <v>303.68000000000109</v>
       </c>
       <c r="B639" s="16">
         <f t="shared" si="14"/>
@@ -9594,7 +9592,7 @@
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" s="16">
         <f t="shared" si="15"/>
-        <v>298.74000000000109</v>
+        <v>303.74000000000109</v>
       </c>
       <c r="B640" s="16">
         <f t="shared" si="14"/>
@@ -9605,7 +9603,7 @@
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="16">
         <f t="shared" si="15"/>
-        <v>298.80000000000109</v>
+        <v>303.80000000000109</v>
       </c>
       <c r="B641" s="16">
         <f t="shared" si="14"/>
@@ -9616,7 +9614,7 @@
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="16">
         <f t="shared" si="15"/>
-        <v>298.86000000000109</v>
+        <v>303.86000000000109</v>
       </c>
       <c r="B642" s="16">
         <f t="shared" si="14"/>
@@ -9627,7 +9625,7 @@
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="16">
         <f t="shared" si="15"/>
-        <v>298.9200000000011</v>
+        <v>303.9200000000011</v>
       </c>
       <c r="B643" s="16">
         <f t="shared" si="14"/>
@@ -9638,7 +9636,7 @@
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="16">
         <f t="shared" si="15"/>
-        <v>298.9800000000011</v>
+        <v>303.9800000000011</v>
       </c>
       <c r="B644" s="16">
         <f t="shared" si="14"/>
@@ -9649,7 +9647,7 @@
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" s="16">
         <f t="shared" si="15"/>
-        <v>299.0400000000011</v>
+        <v>304.0400000000011</v>
       </c>
       <c r="B645" s="16">
         <f t="shared" si="14"/>
@@ -9660,7 +9658,7 @@
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="16">
         <f t="shared" si="15"/>
-        <v>299.1000000000011</v>
+        <v>304.1000000000011</v>
       </c>
       <c r="B646" s="16">
         <f t="shared" si="14"/>
@@ -9671,7 +9669,7 @@
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="16">
         <f t="shared" si="15"/>
-        <v>299.16000000000111</v>
+        <v>304.16000000000111</v>
       </c>
       <c r="B647" s="16">
         <f t="shared" si="14"/>
@@ -9682,7 +9680,7 @@
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="16">
         <f t="shared" si="15"/>
-        <v>299.22000000000111</v>
+        <v>304.22000000000111</v>
       </c>
       <c r="B648" s="16">
         <f t="shared" si="14"/>
@@ -9693,7 +9691,7 @@
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="16">
         <f t="shared" si="15"/>
-        <v>299.28000000000111</v>
+        <v>304.28000000000111</v>
       </c>
       <c r="B649" s="16">
         <f t="shared" si="14"/>
@@ -9704,7 +9702,7 @@
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="16">
         <f t="shared" si="15"/>
-        <v>299.34000000000111</v>
+        <v>304.34000000000111</v>
       </c>
       <c r="B650" s="16">
         <f t="shared" si="14"/>
@@ -9715,7 +9713,7 @@
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="16">
         <f t="shared" si="15"/>
-        <v>299.40000000000111</v>
+        <v>304.40000000000111</v>
       </c>
       <c r="B651" s="16">
         <f t="shared" si="14"/>
@@ -9726,7 +9724,7 @@
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="16">
         <f t="shared" si="15"/>
-        <v>299.46000000000112</v>
+        <v>304.46000000000112</v>
       </c>
       <c r="B652" s="16">
         <f t="shared" si="14"/>
@@ -9737,7 +9735,7 @@
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="16">
         <f t="shared" si="15"/>
-        <v>299.52000000000112</v>
+        <v>304.52000000000112</v>
       </c>
       <c r="B653" s="16">
         <f t="shared" si="14"/>
@@ -9748,7 +9746,7 @@
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" s="16">
         <f t="shared" si="15"/>
-        <v>299.58000000000112</v>
+        <v>304.58000000000112</v>
       </c>
       <c r="B654" s="16">
         <f t="shared" si="14"/>
@@ -9759,7 +9757,7 @@
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="16">
         <f t="shared" si="15"/>
-        <v>299.64000000000112</v>
+        <v>304.64000000000112</v>
       </c>
       <c r="B655" s="16">
         <f t="shared" si="14"/>
@@ -9770,7 +9768,7 @@
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" s="16">
         <f t="shared" si="15"/>
-        <v>299.70000000000113</v>
+        <v>304.70000000000113</v>
       </c>
       <c r="B656" s="16">
         <f t="shared" si="14"/>
@@ -9781,7 +9779,7 @@
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" s="16">
         <f t="shared" si="15"/>
-        <v>299.76000000000113</v>
+        <v>304.76000000000113</v>
       </c>
       <c r="B657" s="16">
         <f t="shared" si="14"/>
@@ -9792,7 +9790,7 @@
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" s="16">
         <f t="shared" si="15"/>
-        <v>299.82000000000113</v>
+        <v>304.82000000000113</v>
       </c>
       <c r="B658" s="16">
         <f t="shared" si="14"/>
@@ -9803,7 +9801,7 @@
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" s="16">
         <f t="shared" si="15"/>
-        <v>299.88000000000113</v>
+        <v>304.88000000000113</v>
       </c>
       <c r="B659" s="16">
         <f t="shared" si="14"/>
@@ -9814,7 +9812,7 @@
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" s="16">
         <f t="shared" si="15"/>
-        <v>299.94000000000113</v>
+        <v>304.94000000000113</v>
       </c>
       <c r="B660" s="16">
         <f t="shared" si="14"/>
@@ -9825,7 +9823,7 @@
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" s="16">
         <f t="shared" si="15"/>
-        <v>300.00000000000114</v>
+        <v>305.00000000000114</v>
       </c>
       <c r="B661" s="16">
         <f t="shared" si="14"/>
@@ -9844,7 +9842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -9860,7 +9858,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="13"/>
@@ -9921,7 +9919,7 @@
       <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>295</v>
       </c>
     </row>
@@ -10000,7 +9998,7 @@
       <c r="B15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="26">
         <f>NORMINV(C13,C3,C4)</f>
         <v>278.592242172277</v>
       </c>
@@ -10019,7 +10017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10132,1030 +10130,2031 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3BF61C-F368-47E9-AE54-5310583ABD5F}">
+  <dimension ref="A1:A200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" customWidth="1"/>
-    <col min="18" max="18" width="20.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>35</v>
+      <c r="A1">
+        <v>274.84112608013675</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>273.41888373135589</v>
+        <v>289.94459300171002</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>290.63683602194942</v>
+        <v>287.37201902564266</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>287.70410168923263</v>
+        <v>292.99946064944379</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>294.11938514036592</v>
+        <v>281.22975792590296</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>280.70192403552937</v>
+        <v>282.75732817397511</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>282.44335411833163</v>
+        <v>281.66168832845869</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>281.19432469444291</v>
+        <v>279.08979647341766</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>278.26236797969614</v>
+        <v>278.52496615756536</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>277.61846141962451</v>
+        <v>283.85424131207401</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>283.69383509576437</v>
+        <v>282.02448576499592</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>281.60791377209534</v>
+        <v>279.28230239573168</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>278.48182473113411</v>
+        <v>280.02412038054899</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>279.32749723382585</v>
+        <v>301.10023900866508</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>303.3542724698782</v>
+        <v>277.87115315382835</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>276.87311459536431</v>
+        <v>282.50916686025448</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>282.16045022069011</v>
+        <v>293.58606199471978</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>294.78811067398055</v>
+        <v>281.79577058486757</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>281.34717846674903</v>
+        <v>281.8640395309194</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>281.42500506524811</v>
+        <v>275.68209035613108</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>274.37758300598944</v>
+        <v>282.58938429295085</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>282.25189809396397</v>
+        <v>284.51519384921994</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>284.44732098811073</v>
+        <v>282.43702119303634</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>282.07820416006143</v>
+        <v>286.32282593767741</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>286.50802156895224</v>
+        <v>287.51858978117525</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>287.87119235053979</v>
+        <v>285.47481307774433</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>285.54128690862854</v>
+        <v>292.7092181527405</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>293.78850869412418</v>
+        <v>286.63253162099863</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>286.86108604793844</v>
+        <v>282.21860604040558</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>281.82921088606236</v>
+        <v>283.80588461564912</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>283.63870846184</v>
+        <v>283.61607307138911</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>283.42232330138359</v>
+        <v>275.31961124273948</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>273.96435681672301</v>
+        <v>276.96038515947293</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>275.83483908179915</v>
+        <v>285.55517830332974</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>285.6329032657959</v>
+        <v>288.09138386000996</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>288.52417760041135</v>
+        <v>285.81233793025604</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>285.92606524049188</v>
+        <v>281.90352296966012</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>281.47001618541253</v>
+        <v>291.09417156738346</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>291.94735558681714</v>
+        <v>282.77592165628448</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>282.46455068816431</v>
+        <v>279.20214180645416</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>278.39044165935775</v>
+        <v>289.96146412842791</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>290.65606910640781</v>
+        <v>285.7407209068333</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>285.84442183378997</v>
+        <v>288.87940986001922</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>289.42252724042191</v>
+        <v>285.1956948381121</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>285.2230921154478</v>
+        <v>295.38933987729251</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>296.84384746011347</v>
+        <v>284.49059770187887</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>284.41928138014191</v>
+        <v>281.67744532416691</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>281.21228766955028</v>
+        <v>279.29479657919728</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>278.4960681002849</v>
+        <v>283.96118083597685</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>283.81574615301361</v>
+        <v>282.04774040765187</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>281.63442406472313</v>
+        <v>286.23035306387465</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>286.4026024928171</v>
+        <v>279.93611539946869</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>279.22717155539431</v>
+        <v>288.93807795262546</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>289.48940886599303</v>
+        <v>291.83775169818546</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>292.79503693593142</v>
+        <v>280.5734324430523</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>279.95371298507962</v>
+        <v>288.23152562486939</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>288.68393921235111</v>
+        <v>283.35576431905793</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>283.12557132372604</v>
+        <v>290.84002464165678</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>291.65762809148873</v>
+        <v>290.55949100089492</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>291.33781974102021</v>
+        <v>288.46997239830671</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>288.95576853406965</v>
+        <v>290.56161694476032</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>291.34024331702676</v>
+        <v>287.26384031520865</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>287.58077795933787</v>
+        <v>291.49454250378767</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>292.40377845431794</v>
+        <v>285.61140781326685</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>285.69700490712421</v>
+        <v>281.86870069126599</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>281.43031878804322</v>
+        <v>287.84456973531633</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>288.24280949826061</v>
+        <v>283.45556999389373</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>283.23934979303885</v>
+        <v>283.84834664953814</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>283.68711518047348</v>
+        <v>286.04233777165064</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>286.18826505968173</v>
+        <v>289.06239450967405</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>289.63112974102842</v>
+        <v>291.55368239677045</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>292.47119793231832</v>
+        <v>276.73498963500606</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>275.57788818390691</v>
+        <v>285.5655692802975</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>285.64474897953914</v>
+        <v>286.67899543157546</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>286.91405479199602</v>
+        <v>277.74963329298771</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>276.73458195400599</v>
+        <v>290.70520342080272</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>291.5039318997151</v>
+        <v>291.62661250316887</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>292.55433825361251</v>
+        <v>285.94636334324605</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>286.0788542113005</v>
+        <v>285.63530478655593</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>285.72424745667377</v>
+        <v>282.62626998744963</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>282.29394778569258</v>
+        <v>285.64109144659596</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>285.7308442491194</v>
+        <v>291.5043309405155</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>292.41493727218767</v>
+        <v>281.14843773088069</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>280.60921901320398</v>
+        <v>276.68205704336287</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>275.51754502943368</v>
+        <v>274.94439920352306</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>273.53661509201629</v>
+        <v>290.10751760884887</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>290.82257007408771</v>
+        <v>282.14733576183789</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>281.7479627684952</v>
+        <v>282.22619463682349</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>281.83786188597878</v>
+        <v>287.16091393667739</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>287.46344188781222</v>
+        <v>289.31003854828305</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>289.91344394504267</v>
+        <v>287.8846841360064</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>288.28853991504729</v>
+        <v>277.67438397509977</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>276.64879773161374</v>
+        <v>274.56041054043453</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>273.09886801609537</v>
+        <v>289.56002453574911</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>290.19842797075398</v>
+        <v>270.30620359815657</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>268.24907210189849</v>
+        <v>287.23125766751764</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>287.54363374097011</v>
+        <v>286.12339080260426</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>286.28066551496886</v>
+        <v>289.26803126174491</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>289.8655556383892</v>
+        <v>285.23666189008509</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>285.269794554697</v>
+        <v>276.30495780264027</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>275.08765189500991</v>
+        <v>288.0825844987703</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>288.51414632859814</v>
+        <v>286.28206920635421</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>286.4615588952438</v>
+        <v>285.48287915888068</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>285.55048224112397</v>
+        <v>284.7380655258894</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>284.70139469951391</v>
+        <v>287.87745933746919</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>288.28030364471488</v>
+        <v>283.31006789463572</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>283.07347739988472</v>
+        <v>280.45734681305476</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>279.82137536688242</v>
+        <v>283.24879068910377</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>283.0036213855783</v>
+        <v>287.56341650128888</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>287.92229481146933</v>
+        <v>282.73149284010287</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>282.41390183771728</v>
+        <v>282.12795215600636</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>281.72586545784725</v>
+        <v>280.60504875262268</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>279.98975557798985</v>
+        <v>287.3433756268787</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>287.67144821464171</v>
+        <v>283.96430722401419</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>283.81931023537618</v>
+        <v>285.58790305956791</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>285.67020948790741</v>
+        <v>287.98327904602047</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>288.40093811246334</v>
+        <v>281.30757088198152</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>280.79063080545893</v>
+        <v>291.43278781353729</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>292.33337810743251</v>
+        <v>291.83482994645601</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>292.79170613895985</v>
+        <v>285.4448509116628</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>285.50713003929559</v>
+        <v>294.77947820501868</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>296.14860515372129</v>
+        <v>283.57309944673034</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>283.37333336927259</v>
+        <v>285.45099568524165</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>285.51413508117548</v>
+        <v>287.49776803684654</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>287.84745556200505</v>
+        <v>286.80540382643812</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>287.05816036213946</v>
+        <v>283.67955011723097</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>283.49468713364331</v>
+        <v>281.87985905438836</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>281.44303932200273</v>
+        <v>291.68412667437224</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>292.61990440878435</v>
+        <v>288.18499928653182</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>288.63089918664627</v>
+        <v>291.89371972839581</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>292.85884049037122</v>
+        <v>277.95162069756771</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>276.96484759522718</v>
+        <v>292.37634309189161</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>293.40903112475644</v>
+        <v>285.71559043135494</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>285.81577309174463</v>
+        <v>276.11673787410837</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>274.87308117648354</v>
+        <v>282.60183868602326</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>282.26609610206651</v>
+        <v>283.75150251682498</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>283.57671286918048</v>
+        <v>286.81112227437552</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>287.06467939278809</v>
+        <v>280.11369423998985</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>279.42961143358843</v>
+        <v>280.14504906983348</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>279.46535593961016</v>
+        <v>277.06047505140305</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>275.94894155859947</v>
+        <v>283.53561121199164</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>283.33059678167047</v>
+        <v>290.06261130794883</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>290.77137689106166</v>
+        <v>282.30570152678411</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>281.92849974053388</v>
+        <v>284.48098547974951</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>284.40832344691444</v>
+        <v>291.71981297273305</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>292.66058678891568</v>
+        <v>288.48555886375834</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>288.97353710468451</v>
+        <v>274.57391653675586</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>273.11426485190168</v>
+        <v>278.79169821622781</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>277.92253596649971</v>
+        <v>291.18850890532485</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>292.05490015207033</v>
+        <v>290.78962726649479</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>291.60017508380406</v>
+        <v>292.4094259616686</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>293.44674559630221</v>
+        <v>280.23556653002743</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>279.56854584423127</v>
+        <v>284.60965624268283</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>284.55500811665843</v>
+        <v>283.06620962772286</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>282.79547897560406</v>
+        <v>283.6839100074576</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>283.49965740850166</v>
+        <v>286.78378058990347</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>287.03350987248996</v>
+        <v>291.81734491081443</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>292.77177319832845</v>
+        <v>279.07516497740289</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>278.2456880742393</v>
+        <v>289.34396270065918</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>289.95211747875146</v>
+        <v>280.38521251452039</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>279.73914226655324</v>
+        <v>280.93547954646056</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>280.36644668296503</v>
+        <v>289.52362201031065</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>290.15692909175414</v>
+        <v>274.55026967450976</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>273.08730742894113</v>
+        <v>284.38204382488038</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>284.29552996036364</v>
+        <v>280.49535232290509</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>279.8647016481118</v>
+        <v>295.15287125483155</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>296.57427323050797</v>
+        <v>290.29611270394525</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>291.03756848249759</v>
+        <v>280.98319391225232</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>280.42084105996764</v>
+        <v>283.50324456929229</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>283.29369880899321</v>
+        <v>277.76819835358765</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>276.75574612308992</v>
+        <v>279.03561332655954</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>278.20059919227788</v>
+        <v>292.34919467504369</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>293.37808192954981</v>
+        <v>282.28755142314185</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>281.90780862238171</v>
+        <v>284.04467813394149</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>283.9109330726933</v>
+        <v>293.94701770448592</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>295.19960018311394</v>
+        <v>281.55916553820134</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>281.07744871354953</v>
+        <v>279.30651769216638</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>278.50943016906967</v>
+        <v>285.16162857718882</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>285.18425657799526</v>
+        <v>278.85730689027696</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>277.99732985491573</v>
+        <v>275.13361957622692</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>273.75232631689869</v>
+        <v>288.74235469280393</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>289.26628434979648</v>
+        <v>288.04567038256209</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>288.47206423612079</v>
+        <v>287.88558794636629</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>288.28957025885757</v>
+        <v>282.26403530075913</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>281.88100024286541</v>
+        <v>278.75515926658409</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>277.88088156390586</v>
+        <v>277.70003172568977</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>276.67803616728634</v>
+        <v>283.80273549024423</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>283.63511845887842</v>
+        <v>290.08886159877875</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>290.80130222260777</v>
+        <v>282.32823425802053</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>281.9541870541434</v>
+        <v>290.29208818988991</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>291.0329805364745</v>
+        <v>281.89239302824717</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>281.45732805220177</v>
+        <v>289.25868620368419</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>289.85490227219998</v>
+        <v>282.02813511248678</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>281.61207402823493</v>
+        <v>292.27343376638601</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>293.29171449368005</v>
+        <v>282.73615968479135</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>282.41922204066213</v>
+        <v>291.0066781770729</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>291.84761312186311</v>
+        <v>274.46377672837116</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>272.98870547034312</v>
+        <v>284.46867319522426</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>284.39428744255565</v>
+        <v>282.47228685009759</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>282.11840700911125</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>288.12964016302431</v>
+        <v>287.74529838861781</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB9F973-098F-4FB6-BB5D-17DA5BF86026}">
+  <dimension ref="A1:A200"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>274.84112608013675</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>289.94459300171002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>287.37201902564266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>292.99946064944379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>281.22975792590296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>282.75732817397511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>281.66168832845869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>279.08979647341766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>278.52496615756536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>283.85424131207401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>282.02448576499592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>279.28230239573168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>280.02412038054899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>301.10023900866508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>277.87115315382835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>282.50916686025448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>293.58606199471978</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>281.79577058486757</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>281.8640395309194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>275.68209035613108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>282.58938429295085</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>284.51519384921994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>282.43702119303634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>286.32282593767741</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>287.51858978117525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>285.47481307774433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>292.7092181527405</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>286.63253162099863</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>282.21860604040558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>283.80588461564912</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>283.61607307138911</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>275.31961124273948</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>276.96038515947293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>285.55517830332974</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>288.09138386000996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>285.81233793025604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>281.90352296966012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>291.09417156738346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>282.77592165628448</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>279.20214180645416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>289.96146412842791</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>285.7407209068333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>288.87940986001922</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>285.1956948381121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>295.38933987729251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>284.49059770187887</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>281.67744532416691</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>279.29479657919728</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>283.96118083597685</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>282.04774040765187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>286.23035306387465</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>279.93611539946869</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>288.93807795262546</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>291.83775169818546</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>280.5734324430523</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>288.23152562486939</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>283.35576431905793</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>290.84002464165678</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>290.55949100089492</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>288.46997239830671</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>290.56161694476032</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>287.26384031520865</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>291.49454250378767</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>285.61140781326685</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>281.86870069126599</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>287.84456973531633</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>283.45556999389373</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>283.84834664953814</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>286.04233777165064</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>289.06239450967405</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>291.55368239677045</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>276.73498963500606</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>285.5655692802975</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>286.67899543157546</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>277.74963329298771</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>290.70520342080272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>291.62661250316887</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>285.94636334324605</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>285.63530478655593</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>282.62626998744963</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>285.64109144659596</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>291.5043309405155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>281.14843773088069</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>276.68205704336287</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>274.94439920352306</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>290.10751760884887</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>282.14733576183789</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>282.22619463682349</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>287.16091393667739</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>289.31003854828305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>287.8846841360064</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>277.67438397509977</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>274.56041054043453</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>289.56002453574911</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>270.30620359815657</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>287.23125766751764</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>286.12339080260426</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>289.26803126174491</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>285.23666189008509</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>276.30495780264027</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>288.0825844987703</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>286.28206920635421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>285.48287915888068</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>284.7380655258894</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>287.87745933746919</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>283.31006789463572</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>280.45734681305476</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>283.24879068910377</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>287.56341650128888</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>282.73149284010287</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>282.12795215600636</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>280.60504875262268</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>287.3433756268787</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>283.96430722401419</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>285.58790305956791</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>287.98327904602047</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>281.30757088198152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>291.43278781353729</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>291.83482994645601</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>285.4448509116628</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>294.77947820501868</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>283.57309944673034</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>285.45099568524165</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>287.49776803684654</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>286.80540382643812</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>283.67955011723097</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>281.87985905438836</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>291.68412667437224</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>288.18499928653182</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>291.89371972839581</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>277.95162069756771</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>292.37634309189161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>285.71559043135494</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>276.11673787410837</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>282.60183868602326</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>283.75150251682498</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>286.81112227437552</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>280.11369423998985</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>280.14504906983348</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>277.06047505140305</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>283.53561121199164</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>290.06261130794883</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>282.30570152678411</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>284.48098547974951</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>291.71981297273305</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>288.48555886375834</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>274.57391653675586</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>278.79169821622781</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>291.18850890532485</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>290.78962726649479</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>292.4094259616686</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>280.23556653002743</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>284.60965624268283</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>283.06620962772286</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>283.6839100074576</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>286.78378058990347</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>291.81734491081443</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>279.07516497740289</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>289.34396270065918</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>280.38521251452039</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>280.93547954646056</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>289.52362201031065</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>274.55026967450976</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>284.38204382488038</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>280.49535232290509</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>295.15287125483155</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>290.29611270394525</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>280.98319391225232</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>283.50324456929229</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>277.76819835358765</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>279.03561332655954</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>292.34919467504369</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>282.28755142314185</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>284.04467813394149</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>293.94701770448592</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>281.55916553820134</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>279.30651769216638</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>285.16162857718882</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>278.85730689027696</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>275.13361957622692</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>288.74235469280393</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>288.04567038256209</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>287.88558794636629</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>282.26403530075913</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>278.75515926658409</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>277.70003172568977</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>283.80273549024423</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>290.08886159877875</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>282.32823425802053</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>290.29208818988991</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>281.89239302824717</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>289.25868620368419</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>282.02813511248678</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>292.27343376638601</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>282.73615968479135</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>291.0066781770729</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>274.46377672837116</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>284.46867319522426</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>282.47228685009759</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>287.74529838861781</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>